--- a/Data/Cleaned/df_dta_qt_cleaned.xlsx
+++ b/Data/Cleaned/df_dta_qt_cleaned.xlsx
@@ -20,31 +20,37 @@
     <t xml:space="preserve">QUOTES</t>
   </si>
   <si>
+    <t xml:space="preserve">I used to take long naps, spend a lot of time on the couch, and I kept telling my mom all the time 'I'm incubating something, I don't know what'. And I didn't have a fever, but I felt my brain heating up, really. I felt there was inflammation but I didn't have a fever.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was big, big cramps in my abdomen. Vomiting all day long.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So I had the symptoms of pain, I had the symptoms of bloating, I had the symptoms of vomiting, I had the symptoms of going to the toilet very regularly, I had this fistula there as well.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Been home for a week, and I found the fatigue very heavy, I would always sleep and sleep and at one point I said, I have to get over it.“</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Of course, you can't do much during a crisis. Standing up for ten minutes is actually a long time. It was a while ago, but I can still remember it well. It was actually constantly walking to and from the toilet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don't just say because I also have a lot of rheumatological problems. And finally, spondylitis has now come out as well. So I explain that in such a way that I also have very diverse complaints. Not just gut-related.</t>
+  </si>
+  <si>
     <t xml:space="preserve">I had a little bit of pain in my duodenum as a result, and so he gave me [name antispasmodic] and he said, 'It's going to pass, don’t worry!' and then it went on like that for months and then at some point I had a huge attack of haemorrhoids that I couldn't walk anymore and canker sores in my mouth. I didn't know how to eat anymore. My cheek had swollen, I looked like a hamster.”</t>
   </si>
   <si>
-    <t xml:space="preserve">It was big, big cramps in my abdomen. Vomiting all day long.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So I had the symptoms of pain, I had the symptoms of bloating, I had the symptoms of vomiting, I had the symptoms of going to the toilet very regularly, I had this fistula there as well.</t>
+    <t xml:space="preserve">That was the first time I didn't really know I had it, and then I had lost ten kilos, I wasn't well at all and then I was hospitalised. I had lost ten kilos at the time, dehydrated. I was actually in the hospital for ten days.</t>
   </si>
   <si>
     <t xml:space="preserve">[...] so he gave me [name antispasmodic] and he said, 'It's going to pass, don’t worry!' and then it went on like that for months and then at some point I had [...] canker sores in my mouth. I didn't know how to eat anymore. My cheek had swollen, I looked like a hamster.”</t>
   </si>
   <si>
-    <t xml:space="preserve">I used to take long naps, spend a lot of time on the couch, and I kept telling my mom all the time 'I'm incubating something, I don't know what'. And I didn't have a fever, but I felt my brain heating up, really. I felt there was inflammation but I didn't have a fever.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I don't just say because I also have a lot of rheumatological problems. And finally, spondylitis has now come out as well. So I explain that in such a way that I also have very diverse complaints. Not just gut-related.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Been home for a week, and I found the fatigue very heavy, I would always sleep and sleep and at one point I said, I have to get over it.“</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Of course, you can't do much during a crisis. Standing up for ten minutes is actually a long time. It was a while ago, but I can still remember it well. It was actually constantly walking to and from the toilet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">That was the first time I didn't really know I had it, and then I had lost ten kilos, I wasn't well at all and then I was hospitalised. I had lost ten kilos at the time, dehydrated. I was actually in the hospital for ten days.</t>
+    <t xml:space="preserve">Well, there were periods that I think were too short, unfortunately, where I was able to rest physically and psychologically because things were getting better, but in the end you're never at ease.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I went for a walk, I had just eaten, and now, fortunately, it was in the woods but [...] Then a little accident and then psychologically well, I wasn't ready. And it's silly because we tell ourselves it can happen to anyone in fact but, yes it still has a psychological impact.”</t>
   </si>
   <si>
     <t xml:space="preserve">Well, actually, it's still something, I always feel like [...] yes, the image of having a sword of Damocles hanging over your head.</t>
@@ -59,61 +65,97 @@
     <t xml:space="preserve">Physically, it's not visible when we're not feeling well, so it's not like having a broken arm or a cast on your foot, people don't see it and so it's like 'stop complaining'. We're in pain, we turn white because of the pain, but people don't realize it. So no, the people around us don't understand”</t>
   </si>
   <si>
-    <t xml:space="preserve">Well, there were periods that I think were too short, unfortunately, where I was able to rest physically and psychologically because things were getting better, but in the end you're never at ease.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I went for a walk, I had just eaten, and now, fortunately, it was in the woods but [...] Then a little accident and then psychologically well, I wasn't ready. And it's silly because we tell ourselves it can happen to anyone in fact but, yes it still has a psychological impact.”</t>
+    <t xml:space="preserve">“ I also had surgery [...] then started taking medication and then nothing more. Immediately no more complaints, no cramps, diarrhoea though. The need to go to the toilet, yes, but for the rest never nothing anymore.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The [name interleukin inhibitor] works very well, I do an injection every 8 weeks, and in any case for Crohn's and Verneuil for the moment it works perfectly. Oh, really. It works very well.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In my daily life I'm fine, I'll say, thanks to the [name TNF inhibitor], I thank the [name TNF inhibitor] every day who allows me to stand up and know how to do everything I can do too.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, because at the moment I've been without medication for 9 weeks now, so I don't know which one I'm going to have. [...] That's difficult, the treatments are limited and I know they go in degrees, so if the lightest form doesn't help, then they go to the next step and the next step, but they're also quite limited in that, I know they do studies on that, but yes, it's not like you can choose from 100 different drugs and the one that gives the least side effects, that you can actually take that.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since I've had surgery and I've been on treatment, we've finally found the right treatment because I've been on five different treatments, I'm on the fifth I think now, I have absolutely nothing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He doesn't have any treatment... Finally... so [name immunomodulator A] that was quickly over, [name TNF inhibitor A] still worked for a long time and then it does... so, I didn't respond to [name TNF inhibitor A] anymore and so when you don't respond to a treatment anymore, well necessarily first you increase the intake, so now, I no longer injected myself every two weeks but every week, and after x amount of time we do it again. No, it really didn't work, so we changed. Then I took another molecule, I don't remember which one. It didn't work either, after... I think that after a year I was already unresponsive and here I am on [name TNF inhibitor B], with [name immunomodulator B], and here we have just done a test again because it's been a month and a half that I'm really not well [...] so I'm at the stage where I'm wondering if it's still worth taking a treatment.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I've learned, and that's it, just to know myself. [...] From the information I've seen or read, there wasn't really any instructions saying "you have Crohn's disease so you can't eat this anymore because it's going to have a negative impact". You had to see for yourself.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“ Yes. I also realize that every medicine will have its side effects, and that is not always easy, and  sometimes there is some fear involved. But there is not much you can do about it, except of course wait and see how it goes. But that's not very pleasant. “</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How can I put it... To be done... Having a wound packed with gauze for almost a year is still long, painful, not only physically but psychologically it's, that's it... Every day, having this care is difficult. [...] It's heavy, even in terms of organization, and then that's it psychologically and all that.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's not just Crohn's, there's the operations, there's the effects of the operations, it plays a psychological role because we're not prepared to go back and forth to the hospital. We were promised that the bag would be the miracle solution, and it's true that I had regained a quality of life in terms of bowel movements and  pain,  but I got other things in return.” ""So in the end you say thank you to the package without asking too many questions, and it's only afterwards, when you read the list of side effects, that you say to yourself 'oh, that's quite something! Was it really a good thing after all?' But at that point it's too late.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“I was also on the two for a few months, so both [name immunomodulator A] and [name TNF inhibitor A], but that turned out to be very heavy. I was very, very tired. The fatigue, both on [name immunomodulator A] and [name TNF inhibitor A], is actually the same</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here with the treatment, the first performance didn't go very well so I was really knocked out for 2-3 days or more.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“ And then the [name immunomodulator A], if you think back to that, it's been a few years, I had skin rashes so quickly, so itchy, red skin and quick itching, especially when I came out of the shower like that, very dry skin too.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“ [...] Yes, I also have that as an additional side-effect of taking that medication. So it is not Crohn's-related, but medication-related that I have skin cancer. This is partly due to [name immunomodulator A]. According to the dermatologist, the main cause is [name immunomodulator A]. But of course, it is also partly maintained by the immune-suppressing infusions I receive. Like [name TNF inhibitor B] and so on.“</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was nauseous all the time, nothing was going through [...] I had loss of appetite. I'm going to say, I was making myself food, I was like, 'oh, that looks great,' and then when I got to the front of the dish, it was impossible to eat.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Only half (name immunomodulator A) and I'm vomiting over the toilet. And then (name immunomodulator A), I've had that. But that was stopped each time, because I couldn't tolerate it.</t>
   </si>
   <si>
     <t xml:space="preserve">I have a deformed belly, my belly button is not symmetrical. I have a hernia that will stay there because I had a mesh but now the hernia won't go away. So sometimes it looks like I'm pregnant, but only on one side when people see me in profile on the bus, they say to me 'you want to sit down, miss?”</t>
   </si>
   <si>
-    <t xml:space="preserve">“I was also on the two for a few months, so both [name immunomodulator A] and [name TNF inhibitor A], but that turned out to be very heavy. I was very, very tired. The fatigue, both on [name immunomodulator A] and [name TNF inhibitor A], is actually the same</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here with the treatment, the first performance didn't go very well so I was really knocked out for 2-3 days or more.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I was nauseous all the time, nothing was going through [...] I had loss of appetite. I'm going to say, I was making myself food, I was like, 'oh, that looks great,' and then when I got to the front of the dish, it was impossible to eat.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Only half (name immunomodulator A) and I'm vomiting over the toilet. And then (name immunomodulator A), I've had that. But that was stopped each time, because I couldn't tolerate it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“ And then the [name immunomodulator A], if you think back to that, it's been a few years, I had skin rashes so quickly, so itchy, red skin and quick itching, especially when I came out of the shower like that, very dry skin too.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“ [...] Yes, I also have that as an additional side-effect of taking that medication. So it is not Crohn's-related, but medication-related that I have skin cancer. This is partly due to [name immunomodulator A]. According to the dermatologist, the main cause is [name immunomodulator A]. But of course, it is also partly maintained by the immune-suppressing infusions I receive. Like [name TNF inhibitor B] and so on.“</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“ Yes. I also realize that every medicine will have its side effects, and that is not always easy, and  sometimes there is some fear involved. But there is not much you can do about it, except of course wait and see how it goes. But that's not very pleasant. “</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How can I put it... To be done... Having a wound packed with gauze for almost a year is still long, painful, not only physically but psychologically it's, that's it... Every day, having this care is difficult. [...] It's heavy, even in terms of organization, and then that's it psychologically and all that.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It's not just Crohn's, there's the operations, there's the effects of the operations, it plays a psychological role because we're not prepared to go back and forth to the hospital. We were promised that the bag would be the miracle solution, and it's true that I had regained a quality of life in terms of bowel movements and  pain,  but I got other things in return.” ""So in the end you say thank you to the package without asking too many questions, and it's only afterwards, when you read the list of side effects, that you say to yourself 'oh, that's quite something! Was it really a good thing after all?' But at that point it's too late.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“ I also had surgery [...] then started taking medication and then nothing more. Immediately no more complaints, no cramps, diarrhoea though. The need to go to the toilet, yes, but for the rest never nothing anymore.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The [name interleukin inhibitor] works very well, I do an injection every 8 weeks, and in any case for Crohn's and Verneuil for the moment it works perfectly. Oh, really. It works very well.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In my daily life I'm fine, I'll say, thanks to the [name TNF inhibitor], I thank the [name TNF inhibitor] every day who allows me to stand up and know how to do everything I can do too.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, because at the moment I've been without medication for 9 weeks now, so I don't know which one I'm going to have. [...] That's difficult, the treatments are limited and I know they go in degrees, so if the lightest form doesn't help, then they go to the next step and the next step, but they're also quite limited in that, I know they do studies on that, but yes, it's not like you can choose from 100 different drugs and the one that gives the least side effects, that you can actually take that.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Since I've had surgery and I've been on treatment, we've finally found the right treatment because I've been on five different treatments, I'm on the fifth I think now, I have absolutely nothing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He doesn't have any treatment... Finally... so [name immunomodulator A] that was quickly over, [name TNF inhibitor A] still worked for a long time and then it does... so, I didn't respond to [name TNF inhibitor A] anymore and so when you don't respond to a treatment anymore, well necessarily first you increase the intake, so now, I no longer injected myself every two weeks but every week, and after x amount of time we do it again. No, it really didn't work, so we changed. Then I took another molecule, I don't remember which one. It didn't work either, after... I think that after a year I was already unresponsive and here I am on [name TNF inhibitor B], with [name immunomodulator B], and here we have just done a test again because it's been a month and a half that I'm really not well [...] so I'm at the stage where I'm wondering if it's still worth taking a treatment.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I've learned, and that's it, just to know myself. [...] From the information I've seen or read, there wasn't really any instructions saying "you have Crohn's disease so you can't eat this anymore because it's going to have a negative impact". You had to see for yourself.”</t>
+    <t xml:space="preserve">Finally, it's rare to find a competent doctor, but I still went through several doctors to really find the rare pearl  who was able to put a good treatment in place.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don't remember what doses I had, but I had brought in all my papers, and he said, 'But you've been completely overdosed, but what did that doctor do? What did he do?'. Well, I don't know anything about it, I'm given a treatment, I take it. The doctor knows what he's doing, I trust him... bah... I think that no, in this respect, we are not sufficiently supervised, and there are doctors who are not professional at all.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">” It goes well as long as you can keep seeing the same doctor, who knows your trajectory, who already has experience that you react or don't react to things in a particular way and who doesn't want to reinvent the wheel every time. In the University [hospital] it's the assistants. And every time different assistants, assistants who don't know my file. [...] And then it happens again. 'In the future, ma'am, you will have to tell them yourself that they should put [name artificial tears] in your eyes. And then I'm like, okay, the responsibility is being placed on me again. “</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm being followed-up at [name of the hospital] by a very good doctor who saved my life, but I would say now he's even working too much, and we... I really feel the difference, he's been seeing me for 6 years now, I feel the difference, he has too much work, it's... I'm a number.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I know that there are a few doctors who are very good, they are all fully booked. But, well, the disease is also not very well recognized by other specialists. There are some who are not specialized in it at all, and I must admit that I don't want to go and see them at all. But, well, no, they're not present enough, even if they try to do their best, no, they're not present enough.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So you see, we feel that the medical system is under pressure, we feel that visits with the surgeon are 5 minutes, quick quick, we talk but there is no examination, there's really nothing in the end.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He's supposed to have a liaison nurse, who manages all the issues.  What I don't know, is whether it's because of lack of resources or... Anyway, she's not very accessible because I don't think she has many hours to handle this. There are a lot of Crohn's patients and so she's a bit overloaded. So there's not really any follow-up of the file, and when you send questions you have to send reminders to get answers, so it's a bit tiring.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“ It is when you want to do a consultation with the gastrointestinal specialist yourself that you are confronted with these waiting times. I still have in the back of my mind, in the University [hospital] they also work with an IBD contact nurse. And that's where I think, if something really serious happens and I go through that person, I might be able to see the relevant professor more quickly. But I don't have any experience with that yet. “</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's very surprising, I think, because there's a lot of progress in human relations, and at the same time I find that the hospital, with all its protocols, has become a bit... it has other, less human sides. I take the simple example of blood tests. Back in the day, there was a nurse who came out of her little cubicle and called the person by name, the person would come to have their blood drawn, then she would call the next one. Now it's like at the butcher's, with numbers [...] And then, the routes now. Before, you had little arrows to indicate this service is over there. Now it's routes, you have to scan your ticket to confirm you've arrived. Before, you went to see the medical secretary to let them know that you were there. Well, it's small things but I think it's still quite dehumanizing.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I explained to you the famous 3 hours I spent with the [name TNF inhibitor] one time in the day hospital. Often we were next to someone else who had Crohn's disease, and I thought it was quite an interesting approach, because there was a lot of sharing of experiences when we were a bit stuck in the hospital. [...] And frankly, I got a lot out of it at the time. This may be the only bright spot of the day-hospital back when I had my [name TNF inhibitor].”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So I went to the specialist, who explained to me that I'm going to get those biologicals, that it's with baxters. And then I went to the IBD nurse and then I don't remember exactly who told me what, but in the end everything was communicated to me well, with a cover, with a booklet, with everything you want. “</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“ But now I have participated in IBD for the first time, the professor who is the whole group who gives support to Crohn's and also to colitis, so the whole group was once introduced on an afternoon from 5 to 8 or 9 at the UZ and that is the first time that I have participated in a group. So just listening, what is possible, what is happening and what we are all doing. [...] So there's a whole team behind that and they're basically putting that on those few hours, each individually explaining what their task and their job is. And that's why I'm also on Facebook, so I'm also in the IBD group.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“ Or indeed, being able to provide much more information to the patient. And then you see, for example, the contrast between, on the one hand, this [hospital], and on the other hand, the UZ [hospital]. The information you get as a patient is a world of difference. But ultimately, I think certain information contributes to the quality of care. And also the further follow-up of it. “</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh no, no, my doctor, uh... I'm telling you, sometimes I'm the one who has to ask for a vaccination: "Do you think I should get vaccinated, Doctor?" So "yes, obviously you have to get vaccinated, because you have low immunity." "Oh well, thank you for telling me!" "Do I have to go see the dermatologist Doctor?", "Oh yes yes, of course you..." “. But frankly no, it's not through my doctor that I found the info, no it's me.”</t>
   </si>
   <si>
     <t xml:space="preserve">No, the information was not clearly given and all the aspects of the disease, what was going to change, the heaviness of a treatment. Because in the end we are given pills, we don't realize what it is, but ultimately it is still a treatment that I consider quite heavy, with very significant side effects.  And we don't talk about that.”</t>
@@ -122,6 +164,15 @@
     <t xml:space="preserve">“ If I don't understand it, they need to make it clear, I wait until I understand it, even if it's difficult. It's because I've seen so many of them pass by, I don't take it from an assistant if he doesn't make the effort. I don't put any more energy into it. My wife thought that was weird too, and when you have the professor and you explain it, they agree with you. You have to know what they're going to do and why they're going to do it.“</t>
   </si>
   <si>
+    <t xml:space="preserve">“ But we decided that together. And afterwards, with the flare-up, it was also very well discussed with the gastroenterologist that they should keep in mind with the rheumatologist that we have to work together and look at it together. “</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At one point he told me 'you absolutely have to take corticosteroids again', I said 'no, I don't want to'. So basically we made a deal (laughs), ... It's laughable but that's the way it is.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The contrast is evident again between [hospital], for example, when you say okay, we're going to start with this, and it's like okay, this is it. While in [region], they literally had brochures, you name it, those and those options, that you can choose from: that, that, that or that. So you did indeed have much more say, much more control. As it were, patients had the last word in [region]. There you could really say. “</t>
+  </si>
+  <si>
     <t xml:space="preserve">“ It had been a week I remember, so I went to my GP's. My GP told me "well, [patient's name], you're having a little gastro", uh a week off, and it still wasn't okay, the pain was getting worse and worse, I couldn't get up, I had a high fever, I lost more than 7 kilos in a week, and uh then I called my doctor back and I said "Listen,  There's still something, it's not right" and from there he actually sent me to the emergency room.”</t>
   </si>
   <si>
@@ -146,55 +197,52 @@
     <t xml:space="preserve">On the other hand, there are very long delays for MRIs, for CT scans, well that's absurd, you have to contact... I had to contact several hospitals to get my MRI done at the request of the rheumatologist. It was three months huh, for the MRI. Finally I tried at another hospital and there was a place that had become available and it was a month of waiting, but for the psychiatrist it was the same thing, you had to wait more than a month before seeing the psychiatrist. So still it's.. Yes, there are long... longer and longer waiting times.”</t>
   </si>
   <si>
-    <t xml:space="preserve">Finally, it's rare to find a competent doctor, but I still went through several doctors to really find the rare pearl  who was able to put a good treatment in place.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I don't remember what doses I had, but I had brought in all my papers, and he said, 'But you've been completely overdosed, but what did that doctor do? What did he do?'. Well, I don't know anything about it, I'm given a treatment, I take it. The doctor knows what he's doing, I trust him... bah... I think that no, in this respect, we are not sufficiently supervised, and there are doctors who are not professional at all.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">” It goes well as long as you can keep seeing the same doctor, who knows your trajectory, who already has experience that you react or don't react to things in a particular way and who doesn't want to reinvent the wheel every time. In the University [hospital] it's the assistants. And every time different assistants, assistants who don't know my file. [...] And then it happens again. 'In the future, ma'am, you will have to tell them yourself that they should put [name artificial tears] in your eyes. And then I'm like, okay, the responsibility is being placed on me again. “</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I'm being followed-up at [name of the hospital] by a very good doctor who saved my life, but I would say now he's even working too much, and we... I really feel the difference, he's been seeing me for 6 years now, I feel the difference, he has too much work, it's... I'm a number.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I know that there are a few doctors who are very good, they are all fully booked. But, well, the disease is also not very well recognized by other specialists. There are some who are not specialized in it at all, and I must admit that I don't want to go and see them at all. But, well, no, they're not present enough, even if they try to do their best, no, they're not present enough.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So you see, we feel that the medical system is under pressure, we feel that visits with the surgeon are 5 minutes, quick quick, we talk but there is no examination, there's really nothing in the end.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He's supposed to have a liaison nurse, who manages all the issues.  What I don't know, is whether it's because of lack of resources or... Anyway, she's not very accessible because I don't think she has many hours to handle this. There are a lot of Crohn's patients and so she's a bit overloaded. So there's not really any follow-up of the file, and when you send questions you have to send reminders to get answers, so it's a bit tiring.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“ It is when you want to do a consultation with the gastrointestinal specialist yourself that you are confronted with these waiting times. I still have in the back of my mind, in the University [hospital] they also work with an IBD contact nurse. And that's where I think, if something really serious happens and I go through that person, I might be able to see the relevant professor more quickly. But I don't have any experience with that yet. “</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It's very surprising, I think, because there's a lot of progress in human relations, and at the same time I find that the hospital, with all its protocols, has become a bit... it has other, less human sides. I take the simple example of blood tests. Back in the day, there was a nurse who came out of her little cubicle and called the person by name, the person would come to have their blood drawn, then she would call the next one. Now it's like at the butcher's, with numbers [...] And then, the routes now. Before, you had little arrows to indicate this service is over there. Now it's routes, you have to scan your ticket to confirm you've arrived. Before, you went to see the medical secretary to let them know that you were there. Well, it's small things but I think it's still quite dehumanizing.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I explained to you the famous 3 hours I spent with the [name TNF inhibitor] one time in the day hospital. Often we were next to someone else who had Crohn's disease, and I thought it was quite an interesting approach, because there was a lot of sharing of experiences when we were a bit stuck in the hospital. [...] And frankly, I got a lot out of it at the time. This may be the only bright spot of the day-hospital back when I had my [name TNF inhibitor].”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“ But we decided that together. And afterwards, with the flare-up, it was also very well discussed with the gastroenterologist that they should keep in mind with the rheumatologist that we have to work together and look at it together. “</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At one point he told me 'you absolutely have to take corticosteroids again', I said 'no, I don't want to'. So basically we made a deal (laughs), ... It's laughable but that's the way it is.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The contrast is evident again between [hospital], for example, when you say okay, we're going to start with this, and it's like okay, this is it. While in [region], they literally had brochures, you name it, those and those options, that you can choose from: that, that, that or that. So you did indeed have much more say, much more control. As it were, patients had the last word in [region]. There you could really say. “</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So I went to the specialist, who explained to me that I'm going to get those biologicals, that it's with baxters. And then I went to the IBD nurse and then I don't remember exactly who told me what, but in the end everything was communicated to me well, with a cover, with a booklet, with everything you want. “</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“ But now I have participated in IBD for the first time, the professor who is the whole group who gives support to Crohn's and also to colitis, so the whole group was once introduced on an afternoon from 5 to 8 or 9 at the UZ and that is the first time that I have participated in a group. So just listening, what is possible, what is happening and what we are all doing. [...] So there's a whole team behind that and they're basically putting that on those few hours, each individually explaining what their task and their job is. And that's why I'm also on Facebook, so I'm also in the IBD group.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“ Or indeed, being able to provide much more information to the patient. And then you see, for example, the contrast between, on the one hand, this [hospital], and on the other hand, the UZ [hospital]. The information you get as a patient is a world of difference. But ultimately, I think certain information contributes to the quality of care. And also the further follow-up of it. “</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oh no, no, my doctor, uh... I'm telling you, sometimes I'm the one who has to ask for a vaccination: "Do you think I should get vaccinated, Doctor?" So "yes, obviously you have to get vaccinated, because you have low immunity." "Oh well, thank you for telling me!" "Do I have to go see the dermatologist Doctor?", "Oh yes yes, of course you..." “. But frankly no, it's not through my doctor that I found the info, no it's me.”</t>
+    <t xml:space="preserve">Well, I've always been extremely independent, but my husband has often accompanied me because it's true that when you're in a crisis, you actually can't do anything.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“ Yes, for example, but I'll just say, to the pharmacist if I need something, or yes... She also usually accompanies me to the hospital. Just in general, support. “</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Well folks, it's funny the last time I went to a restaurant, I was the last one to arrive, and the first thing they said to me after saying hello was 'the toilet is here if you need it'. So there you have it, it's funny but it's also a form of support. Or the people who exercise with me too, sometimes they tell me "yes no wait [name of the patient], don't force yourself too much, you're not in great shape", or "oh well, go for it, you can do better" and that's it, that's how it regulates itself but I think that the entourage has a big role to play.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“ Fortunately, I have a good partner who supports me enormously in this and is very understanding in that area. That makes a difference. For example, he will do the cleaning and cooking. He's going to take a lot off your hands. The moments when I have to lie down on the couch or sleep longer or something, for example, he actually takes on a lot. “</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And then on Facebook as well I found... so I don't know how I came across this at the time, a group in fact that was set up by a lady I think who is followed-up in Liège, in collaboration I think with the gastroenterology services, and in fact all people suffering from either rectocolitis or Crohn's disease can exchange,  Asking questions, uh, throwing out their overflow of emotions, well, it's really a group where you can ask anything, and so if you ask a question, well, you have the feedback from some people. Well, you have to sort it out too but I mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This allows you to get feedback from other people and to position yourself a little bit.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At [name of the hospital], they have a Facebook group called [name of the group], and it's super cool because there are all activities [...]. It's great because you can see that it's a positive group. And finally [...], there's never anyone who shows up and says "I have Crohn's" or "I have ulcerative colitis", we never talk about treatments or anything, it's more like "ah, did you go to the nutritionists, was it great?" or give each other little tips "oh well, I did that, it was good.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“I say it, the people at the hospital themselves who give a lot of support, also know that there is an association where you can always ask questions or meet fellows. The fact that you are not alone. I am well surrounded. I have a lot of people who understand me and are going to assist me. “</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My first instinct was also to see, for example, on Facebook if there were groups of people who were suffering from the disease because we had just been diagnosed but we don't necessarily have all the information, we haven't had an appointment with the doctor yet, and so I put myself in a group where people were all depressed and I said to myself it's not going to be okay,  where I landed, where they all say that it cost them a fortune, that this treatment is wrong.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They hospitalized me for a week, but I was at home for more than a year before I could go back to work. [...] Well, I actually started working again just before the pandemic, and when the pandemic happened, I was directly put on sick leave, and then it's been more than 2 years that I've been in a big spondyloarthritis crisis and uh... Well, I can't work anymore at the moment, anyway. [...] Finally I returned to work, let's say, I started again... Then, uh, I'd hold out for a month, then I'd stop again for a month, and then I'd start again for a month. It's been quite complicated. Just before the pandemic, with the health insurance company, I made the decision to ask for a medical part-time job.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That is to say, I will have to consider a 4/5ths because I accept the fact that I will never be able to work full-time again, that I have to preserve my health. But that means that, again, for my pension, for etc., well... I will have done a part-time job, even though I would like nothing better than to work full-time.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnesium, calcium when I was taking cortisone etc., well all that, it's still quite expensive, probiotics etc. Well, these are things that you have to take as a supplement in the end, but uh... So all this is not reimbursed, but on the other hand all the medical appointments related to the disease, so all the blood tests, additional analyses, the little that is still at our expense is still reimbursed by the public health insurance company. But here's the thing, not everything that's a treatment add-on is reimbursed. And so sometimes I get it for […] Yes, 150€ per month some months.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luckily, I have my hospitalisation insurance which covers everything, 100%. Otherwise it's every 6 weeks, it's 60€ huh. At my expense. Because hey, that's the cost too. There are some who don't work, it's quite expensive 60.5€, 60€ every six weeks. [...] It's still a budget. “ [...] "(Name Proton Pump Inhibitor) which is not reimbursed, before I took (Name immunomodulator) it was reimbursed, and then after we had to pay 3€, you will say 3€ is cheap for a box of 100... But in the long run, if you take 3 a day it's 3€ a month, but hey, in the long run... Before it was free, why it is no longer free, we don't know. “ [...] "The (proton pump inhibitor) I take 20 mg but I use 40 and I cut it in half because it's cheaper, and I buy the big boxes [...] This plus this, plus this, plus this... And then we don't just have Crohn's, there are some who have ankylosing spondyloarthritis, there are some who have psoriasis, there are some who have this, there are some who have that, plus the drugs of other pathologies it easily adds up to... 100€, huh. Even with the reimbursement of the health insurance, we're looking at between 50 and 100€ per month, for sure.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“ And then I only took the codeine, because everything else was unnecessary anyway. It becomes very expensive, because it is all manual work. So I decided to abandon that approach. [...] On average, I spend 130€ per month on medication. Yes, once you're retired, that really adds up. “</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you do a stool analysis... um, blood, there are some elements that are not reimbursed. I'm going to take for example vitamin B12. In Crohn's disease, when we have had resections, there is a whole part of the intestine that can no longer absorb B vitamins or iron, etc. And it's still due to the disease, so why are these vitamins, for example vitamin B12 analysis, not reimbursed? </t>
   </si>
   <si>
     <t xml:space="preserve">“ The car park always counts as a day visit. Tomorrow it will be about 6 euros again. But we just have to accept that. On an annual basis, this does add-up.“</t>
@@ -206,238 +254,190 @@
     <t xml:space="preserve">The fact that I had this illness, for example, meant I had an increase in my life insurance. After the operation, […] I asked the [name of the specialist] to write me a report saying that there was a remission at that level, to see if there was any way to reduce that insurance. That's what he did, and on the paper it said "total clinical remission." Since the operation, I really don't have anything. And even with that, the insurance doesn't want to diminish.”</t>
   </si>
   <si>
-    <t xml:space="preserve">Magnesium, calcium when I was taking cortisone etc., well all that, it's still quite expensive, probiotics etc. Well, these are things that you have to take as a supplement in the end, but uh... So all this is not reimbursed, but on the other hand all the medical appointments related to the disease, so all the blood tests, additional analyses, the little that is still at our expense is still reimbursed by the public health insurance company. But here's the thing, not everything that's a treatment add-on is reimbursed. And so sometimes I get it for […] Yes, 150€ per month some months.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luckily, I have my hospitalisation insurance which covers everything, 100%. Otherwise it's every 6 weeks, it's 60€ huh. At my expense. Because hey, that's the cost too. There are some who don't work, it's quite expensive 60.5€, 60€ every six weeks. [...] It's still a budget. “ [...] "(Name Proton Pump Inhibitor) which is not reimbursed, before I took (Name immunomodulator) it was reimbursed, and then after we had to pay 3€, you will say 3€ is cheap for a box of 100... But in the long run, if you take 3 a day it's 3€ a month, but hey, in the long run... Before it was free, why it is no longer free, we don't know. “ [...] "The (proton pump inhibitor) I take 20 mg but I use 40 and I cut it in half because it's cheaper, and I buy the big boxes [...] This plus this, plus this, plus this... And then we don't just have Crohn's, there are some who have ankylosing spondyloarthritis, there are some who have psoriasis, there are some who have this, there are some who have that, plus the drugs of other pathologies it easily adds up to... 100€, huh. Even with the reimbursement of the health insurance, we're looking at between 50 and 100€ per month, for sure.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“ And then I only took the codeine, because everything else was unnecessary anyway. It becomes very expensive, because it is all manual work. So I decided to abandon that approach. [...] On average, I spend 130€ per month on medication. Yes, once you're retired, that really adds up. “</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you do a stool analysis... um, blood, there are some elements that are not reimbursed. I'm going to take for example vitamin B12. In Crohn's disease, when we have had resections, there is a whole part of the intestine that can no longer absorb B vitamins or iron, etc. And it's still due to the disease, so why are these vitamins, for example vitamin B12 analysis, not reimbursed? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Well, I've always been extremely independent, but my husband has often accompanied me because it's true that when you're in a crisis, you actually can't do anything.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“ Yes, for example, but I'll just say, to the pharmacist if I need something, or yes... She also usually accompanies me to the hospital. Just in general, support. “</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Well folks, it's funny the last time I went to a restaurant, I was the last one to arrive, and the first thing they said to me after saying hello was 'the toilet is here if you need it'. So there you have it, it's funny but it's also a form of support. Or the people who exercise with me too, sometimes they tell me "yes no wait [name of the patient], don't force yourself too much, you're not in great shape", or "oh well, go for it, you can do better" and that's it, that's how it regulates itself but I think that the entourage has a big role to play.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“ Fortunately, I have a good partner who supports me enormously in this and is very understanding in that area. That makes a difference. For example, he will do the cleaning and cooking. He's going to take a lot off your hands. The moments when I have to lie down on the couch or sleep longer or something, for example, he actually takes on a lot. “</t>
-  </si>
-  <si>
-    <t xml:space="preserve">And then on Facebook as well I found... so I don't know how I came across this at the time, a group in fact that was set up by a lady I think who is followed-up in Liège, in collaboration I think with the gastroenterology services, and in fact all people suffering from either rectocolitis or Crohn's disease can exchange,  Asking questions, uh, throwing out their overflow of emotions, well, it's really a group where you can ask anything, and so if you ask a question, well, you have the feedback from some people. Well, you have to sort it out too but I mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This allows you to get feedback from other people and to position yourself a little bit.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At [name of the hospital], they have a Facebook group called [name of the group], and it's super cool because there are all activities [...]. It's great because you can see that it's a positive group. And finally [...], there's never anyone who shows up and says "I have Crohn's" or "I have ulcerative colitis", we never talk about treatments or anything, it's more like "ah, did you go to the nutritionists, was it great?" or give each other little tips "oh well, I did that, it was good.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“I say it, the people at the hospital themselves who give a lot of support, also know that there is an association where you can always ask questions or meet fellows. The fact that you are not alone. I am well surrounded. I have a lot of people who understand me and are going to assist me. “</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My first instinct was also to see, for example, on Facebook if there were groups of people who were suffering from the disease because we had just been diagnosed but we don't necessarily have all the information, we haven't had an appointment with the doctor yet, and so I put myself in a group where people were all depressed and I said to myself it's not going to be okay,  where I landed, where they all say that it cost them a fortune, that this treatment is wrong.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">They hospitalized me for a week, but I was at home for more than a year before I could go back to work. [...] Well, I actually started working again just before the pandemic, and when the pandemic happened, I was directly put on sick leave, and then it's been more than 2 years that I've been in a big spondyloarthritis crisis and uh... Well, I can't work anymore at the moment, anyway. [...] Finally I returned to work, let's say, I started again... Then, uh, I'd hold out for a month, then I'd stop again for a month, and then I'd start again for a month. It's been quite complicated. Just before the pandemic, with the health insurance company, I made the decision to ask for a medical part-time job.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">That is to say, I will have to consider a 4/5ths because I accept the fact that I will never be able to work full-time again, that I have to preserve my health. But that means that, again, for my pension, for etc., well... I will have done a part-time job, even though I would like nothing better than to work full-time.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
+    <t xml:space="preserve">“I think that the melanoma itself took energy during the first two months, two, three months. […]  it consumes energy during the moments when you have to undergo tests and wait for results and such.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes. My body can't handle that weight anymore. With the mobility scooter it's better now. I sit and now I always bring my walking stick with me. Because yes, if we're somewhere and I have to go pee, I have to take my walking stick. For all the places you don't know. At home, I can walk around here and there. That's different. There, fortunately, I don't need my walking stick yet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now we are in the phase where we are actually trying to manage the side effects of immunotherapy, but for me every time I go to the oncology day center, it's still like 'what am I doing here?' Because it's not proven, not even in the literature, that the therapy they are giving me now is not standard, but what is standard of course... So I'm always still in doubt about what they can do... I look at it like this, if you don't have a headache, do you take headache pills? And if there are no tumors, what does that immunotherapy actually do in my body?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don't know if it already exists, a bit like the campaigns where you can go directly to the doctor, where they have a melanoma day. That's a day for everyone, we inspect everyone's skin. So maybe that? [...] Putting dermatology students, asking them too. Under the supervision of a professor, or whatever. [...] To do... yes, a national screening.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prevention. A campaign around that. Ensuring that there can be good timely detection. Early detection.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But I think that if something can still evolve in the medical world, then I think that early detection is actually important. Because I'm already going to the dermatologist's every year now and yet we missed it. So, I wonder if there are no other possibilities or methods or devices that can detect it better.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That's a day trip. I see it as a day trip. It's five, six hours, because it's in [city]. That's an hour and a half that you lie on that bed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's only when it, when it gets worse and it spreads of course, then it can suddenly go fast of course. [...] So then you're really confronted with it. But the first time, when you think okay it's gone, it's gone, then you get over it pretty quickly, it's not like with something else, if it's in an organ or something, because that's inside you, that's a totally different feeling than when it's on your skin and they cut it away and it's gone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[...] now the immunotherapy, that doesn't really affect my daily life that much. But the surgery does. That also has a huge impact on my mobility. And yeah, I don't really feel well supported in that regard. I was bedridden when I came out of the hospital. Which I actually didn't expect.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I also had no idea what to do with my time. I was just lying there, I could hardly do anything physically, but my mind wasn't still. And then I can assure you, everyone says, oh, you can watch Netflix series, so fun. No, it's not fun. For starters, it gets boring after a while, just watching TV all the time [...] So yeah, it was really difficult to find something, to find a meaningful activity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And it does take some time, I go every two weeks, on Thursdays for a consultation and on Fridays to get a baxter. Yeah, that takes time. And eventually you have something like, yeah. Because then you have to go to the dermatologist's every few months, I think three months. And then to the eye doctor, because a melanoma can also be in the eye. A dermatologist can't see that. And then you also have to go to the gynaecologist, because you'll also have melanomas there. And so you keep busy with a lot of tests.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So I always kept my phone near me while teaching, telling myself 'well, she'll call me', I'm telling you it was on Tuesday. End of the week, still no news. On Monday, since I still hadn't heard anything, I called [name of the hospital], and then they told me 'oh but the secretary was on vacation, she's coming back tomorrow'.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I just told him that I still had pain... Every time I ate, I had pain, just behind the scar, and then he interrupted me. And he said to me, 'no'.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They explained to me [...] absolutely nothing about what was post-operative... and they didn't ask me any questions." [...] "The surgeon didn't tell me at all during the consultation, that after such an intervention, I had no idea, there are so many weeks of recovery." [...] "No one asked me after the operation if I had someone near me to watch over me, to help me, to uh... and they didn't explain to me that I would need a nurse to change the dressings. They hadn't told me anything.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, about the treatment, about the progress in melanoma research, how to support melanoma research, if there are also things... Life expectancy in relation to the stage, because we see a lot of things, uh... that are contradictory too.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I also do it by doing research on the internet like that. Because I don't get the information from him... He said 'yes, you have to protect yourself' but that's it. Here, I have different organisations, or on Youtube, there are also people who talk about melanoma, and who say 'every three hours' they put on sunscreen, SPF 50. Things like that. Yes, but yes. Internet, a little bit of Youtube because you can find experiences. Sharing experiences. But as for my training, well I go to Pubmed: I know where to look for relevant information. I don't go directly... well I don't go to Google, and I don't search like that. So I have no idea where it stands in that respect, whether good information is being given or not. I don't pay attention.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But I also have to say, my oncologist also provided the necessary information. Not only to me, but also to my wife, my children. I think my parents called him once. And he took the time every time to explain it, okay, that's it. Here we are now. These are the treatment options.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And then he explained everything to me, in detail, and with the words... uh, the scientific words, and luckily I had a piece of paper and a pen. All the words that I didn't understand at all. At the same time, he explained a little bit anyway, but there were things that I didn't understand, which allowed me to go and look on the internet and understand it, well, at my leisure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you look up information, you find two things. Either very simple information, really super simple, that everyone can understand, where things are presented so black and white that you're actually not getting anything out of it, because it's not really about you. Plus, you don't want to recognize yourself in it, because it usually concerns bad prognosis, good prognosis. So that's not good. Well, that's how it is, what's on the 'Kom op tegen Kanker' website, I'm not getting anything out of it. But the other things you search for, the scientific articles, are actually so directed at oncologists, and I'm not an oncologist, so they're too complicated for me and I don't understand enough of them. And even then, you still don't know if you fall into that research population or not. So no, I actually don't find the right information that can help me.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Flanders, there is the 'Melanoompunt'. The first day I was at [name Flemish hospital], I was still in the hospital when the Melanoompunt called me, saying 'Well, we are now organizing...', it was two weeks later, 'we are organizing the annual meeting, with all patients who have had melanomas, and so you are also part of the melanoma family', you know.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, of course, that is discussed to some extent. On the other hand, a doctor is also limited in the possibilities. I can only say, from the health insurance and such, there are only a limited number of possibilities to take. And if you meet those conditions, then you can take that therapy. And I mean, that treatment path is also fixed. A doctor doesn't have so much... He does have a number of choices and I can... But there aren't that many choices with melanoma, of course. To say, we're going to do something completely different now.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And then the surgeon said to me at one of the consultations, yes, what would we do? Would we dare to remove that drain once? And then I thought, I'm not an experiment, either you know it and you remove it, or you don't. It's a statement, people should pay more attention to that. I got the feeling that I was allowed to decide for myself whether we were going to dare to do that or not. And I think that was a way of speaking from that person, but actually I didn't find that appropriate. That didn't really give me confidence, I have to say.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actually, my brother was the reason. A few years ago he had a melanoma and it was surgically removed and that was it. There was no treatment, no follow-up or anything like that. [...] Another reason was also because my sister-in-law died of a melanoma. That made the urgency even greater.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's clear that the spot was really a textbook case, it looked very much like what you see on posters, and at the same time I thought 'well, no', there you go, so I really went into denial, and it's because... Well, a year ago this spot started to ooze, to itch very strongly, that... that's when I thought... then I showed it to my son, who said 'mom, that's not good', and that's when I decided to go to the dermatologist's.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[...] I never felt the need to say ' I have to regularly see my dermatologist because I'm at risk'. I never had that notion of risk in mind.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, it wasn't diagnosed through annual check-ups, because nothing was ever found. It's actually because I had a symptom, because I had the swollen lymph node. And it turned out to be the result of a melanoma that had once been there." [...] "So that means that with that metastasis in the lymph node, which was in the lymph node, I was actually already in stage 3, while a melanoma had never been seen. So all those years no melanoma was found. We looked for it, given my brother's story, but no melanoma was found.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But I think that if something can still evolve in the medical world, then I think that early detection is actually important. [...] Because I want to say now, when I see how a dermatologist examines me, yes, I understand that they can miss that.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, we have to move on. So it's actually a combination of circumstances and even during the examination at [name of the hospital], they didn't even know whether it was a primary melanoma or a metastasis. So for me it's really a difficult case, because I believe that technology should be more advanced. That there is still doubt in the final report... but I think that can happen in the medical world, but my brain doesn't understand it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was almost impossible to get into a practice nearby. I think that's an issue on all health levels. That's not just dermatologists. That's a big issue. Accessibility to a dermatologist. But all the good dermatologists in the are not accapting new patients.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When we call for an appointment, we are given dates, but there are days when you teach, so you say 'well no, I'm not going to be absent'. First of all, because it's not covered, we're not covered for medical appointments, we can't be absent for medical appointments. And so we give up, we postpone all the time, we give up because we know that it's not going to fit in the schedule.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Well I live alone. So I've already had to manage by myself in an emergency. Luckily, the local grocer told me 'there are services to take you to the hospital'. But for the return, I found a friend. I had called a friend without knowing exactly what time I'd be finished and so I had someone just to take me back home. So in the end, I managed by myself, I found someone in the neighborhood - thank you Facebook - who came to pick me up.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I also think that in this case, immunotherapy should be available to the patient in whichever hospital they want to do it, I think that's very important, that we don't have to go to [city], so that should be much better coordinated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And on a mental health level, yes... we all know that access to care for psychologists is very difficult. So access to care for psychologists should be made more accessible. But yes, that's a problem, not just for cancer patients. Even people with mental problems have difficulty accessing it, so I think that's important.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I currently work with, I always forget the name, I work three and a half days a week and one and a half days I'm still on sick leave. Definitely progressive work resumption, for three years now during treatment. That's mainly due to fatigue and concentration problems. If I have a whole day, I have an office job, but when I come home in the evening, I'm just naturally dead tired. [...] So I really need that time to recover a bit and do things.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Because, you know, I think it's better to enjoy life and anyway... I could see that I was too tired, that I wouldn't have been able to handle it, and rather than managing it poorly, it's better to retire. I 've already been eligible for retirement for more than two years anyway.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That is fully reimbursed. I am happy about that. I think I take about 15,000 euros worth of pills per month. So that is fully reimbursed. So I have absolutely no problems with that. Actually, I don't have any consultation fees. But if I just go to the day hospital, the costs are also reimbursed through the hospitalization insurance. So, in essence, I have little financial impact there.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, parking, I think... I think they should make a separate parking lot for that day center, because it's six euros every time. And I actually think that's too much for... It's not like I'm visiting, but I can't change that they take such a long time... Sometimes I have to sit in that chair or on the bed for three hours. That's not a mortal sin, but I think 6 euros is too much for actually being a patient, a cancer patient. [...] That's not our choice, so they call it a social rate, but I don't think 6 euros is a social rate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My wife, she deals with it in her own way, but of course, I make myself a priority, even though that's not right. A bit selfish. But I do have cancer. So you have to be able to put that everything into perspective, but it definitely has an impact on our relationship.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Belgium, yearly UV awareness campaigns are rolled out. Despite this, inadequate protective practices have been measured, notably during outdoor leisure activities and particularly in young people and outdoor workers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, that's a blow when you hear that. Because you know first of all: cancer, that's already something. The word cancer. Then melanoma, you know, that's really something serious. All cancer is serious, but yeah. [...] Oh yeah, psychologically, just the word cancer is something. They say there is a life, before and after cancer, and that's true. And I mean purely psychologically.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Because I am sick, but if I die, my wife will be left behind. So psychologically, that also hits deep.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That my life now completely changes, even if the therapy stops. Yes, I still have to go to the dermatologist's every few months. And you will always be afraid that there is a spot... Yes, I have that now too. So I am diligent in the shower, and I see a spot that I thought, 'that wasn't there before'.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[…]  I also notice that I become more nervous. And that's not my character, because normally when there is a problem I stay calm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are very fragile when we arrive at the hospital. [...] Well, I felt very fragile when I entered the room alone, since the lady dropped me off at the entrance, I entered that room at 9AM and I burst into tears. [...] I felt abandoned, totally abandoned and... that's it. It's like being taken to prison.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I think that's very important, for people who, so to speak, are considered to have no treatment options left. That they can have access to potential therapies that might still offer some hope. I think that... Because I think that if you hear that word 'that you are out of treatment options', it's a serious blow. And I think that in some ways one should still try to find something that might work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So I go telling myself, it's me who will have the upper hand. I added greenery to the garden, just like that. To have shaded areas, things like that. So yeah, psychologically it's like telling myself 'no, I'm not going to let myself be defeated'.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That there is a care coordinator or a case manager or that you have a personal coach who can guide you through all phases and not necessarily emotionally. Although I think you shouldn't separate these functions. I think you should have an onco-coach who can do everything. Someone who can follow up on the administrative side for you and, because that shouldn't be too much work, but someone who can do that. But someone who can also provide some emotional support. I think you'd get more out of it in that way. I think a psychologist is more in the second line, and is not necessary for everyone. But having a coach who walks alongside you, who holds the baton for you. I think that would be ideal for me. Who also ensures coordination between first line, second line, contacts, and possibly GP if necessary.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, it was nice. [...] But we know that they are all people [...] who have melanoma and so, it actually helps to destress. We say to ourselves, 'well, these are normal people after all'. [...] So there you go. And then we were able to talk to quite a few people, super nice of course. And who all have this perspective of sharing their experience. To take the drama out of the situation a bit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After maybe doing the dishes I had to go to bed, it was always a case of rest and activity. I knew that my day had to be broken down into several, several, come on, several, stages".</t>
   </si>
   <si>
     <t xml:space="preserve">I'm out of breath all the time, I can't allow myself to, to walk, to live properly, the way I normally want to live. For example, if I go for a walk in the woods, I used to really feel the air passing through my lungs, I really felt like I was living. Now, well, when I breathe, I breathe, well, I really have the impression that, that I'm not even taking advantage of, it's as if I didn't know how to breathe entirely in fact, it's, it's, it's unpleasant.</t>
   </si>
   <si>
+    <t xml:space="preserve">Muscle aches: as soon as I exert myself, I ache all over. As much as I used to do sport regularly... here I've lost all my muscles. I'm back to 0. When I lift my weights and struggle to finish my set, afterwards I can't even hold my phone in my hand because I've lost all my strength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taste and smell disorders, and more specifically parosmia. Many tastes and smells do not correspond to what I knew before COVID. A single smell and taste (that I don't know) replaces all of them. I'm at the stage where I can't stand to stay in the kitchen when our breads are baking in the oven.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Having trouble finding words, not being able to finish sentences, having a lot of trouble concentrating (e.g. during work, asking yourself every 5 minutes what you were doing now... which folder did I want to open again' or “what was I going to do next”), confused in the sense that you very often forget things or sometimes have the feeling that you are in a fog where everything is blurred in your head for a moment, these are all symptoms that I never had before the disease</t>
   </si>
   <si>
     <t xml:space="preserve">you could say yes, everyone is tired sometimes and then your brain sometimes fails, but this is much worse than that and also abnormal that it remains so frequently present.</t>
   </si>
   <si>
-    <t xml:space="preserve">After maybe doing the dishes I had to go to bed, it was always a case of rest and activity. I knew that my day had to be broken down into several, several, come on, several, stages".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taste and smell disorders, and more specifically parosmia. Many tastes and smells do not correspond to what I knew before COVID. A single smell and taste (that I don't know) replaces all of them. I'm at the stage where I can't stand to stay in the kitchen when our breads are baking in the oven.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muscle aches: as soon as I exert myself, I ache all over. As much as I used to do sport regularly... here I've lost all my muscles. I'm back to 0. When I lift my weights and struggle to finish my set, afterwards I can't even hold my phone in my hand because I've lost all my strength</t>
+    <t xml:space="preserve">Yoga is very slow and gentle, without too much pushing. The emphasis is on activating the parasympathetic nervous system to stop the fight-or-flight response of the nervous system. Indeed, the autonomic nervous system seems to be affected by COVID. In mindfulness, I try to focus on positive things and accept that the situation is as it is.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I learned relaxation techniques through a relaxation therapist to fall back asleep when I wake up at night with muscle tension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There were no tests available in March 2020 for young, healthy people with mild symptoms like me. Contact through the GP was only by phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moreover, the doctor I normally consult was not available. So I had to make do with a telephone consultation with someone who did not know me as a patient at all.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I more or less made the diagnosis myself. You read about it, actively look up information and draw your conclusion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was a bit disturbing because you feel a whole series of symptoms and... there's nothing you can do but wait for it to pass... and as in some cases it takes a very long time, you wonder if it's imaginary... in short, you doubt your own mental health...".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My doctor even told me: but ma'am, why should I refer you to specialists to do all kinds of tests if they are not going to find anything anyway? That way you'll soon be the end of the story[...] Everything is so eagerly shoved under the mat of psychosomatic anyway...</t>
   </si>
   <si>
     <t xml:space="preserve">Insomnia. I have that too. So I'm tremendously tired, but at night I can't sleep. Yes yes. That you actually lie awake at night. I'm downstairs. I'm tired, I crawl into bed. Uh I sleep for two hours, three hours, and then it's done at one time.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yoga is very slow and gentle, without too much pushing. The emphasis is on activating the parasympathetic nervous system to stop the fight-or-flight response of the nervous system. Indeed, the autonomic nervous system seems to be affected by COVID. In mindfulness, I try to focus on positive things and accept that the situation is as it is.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I learned relaxation techniques through a relaxation therapist to fall back asleep when I wake up at night with muscle tension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There were no tests available in March 2020 for young, healthy people with mild symptoms like me. Contact through the GP was only by phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">moreover, the doctor I normally consult was not available. So I had to make do with a telephone consultation with someone who did not know me as a patient at all.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I more or less made the diagnosis myself. You read about it, actively look up information and draw your conclusion.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It was a bit disturbing because you feel a whole series of symptoms and... there's nothing you can do but wait for it to pass... and as in some cases it takes a very long time, you wonder if it's imaginary... in short, you doubt your own mental health...".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My doctor even told me: but ma'am, why should I refer you to specialists to do all kinds of tests if they are not going to find anything anyway? That way you'll soon be the end of the story[...] Everything is so eagerly shoved under the mat of psychosomatic anyway...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes. My body can't handle that weight anymore. With the mobility scooter it's better now. I sit and now I always bring my walking stick with me. Because yes, if we're somewhere and I have to go pee, I have to take my walking stick. For all the places you don't know. At home, I can walk around here and there. That's different. There, fortunately, I don't need my walking stick yet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“I think that the melanoma itself took energy during the first two months, two, three months. […]  it consumes energy during the moments when you have to undergo tests and wait for results and such.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, that's a blow when you hear that. Because you know first of all: cancer, that's already something. The word cancer. Then melanoma, you know, that's really something serious. All cancer is serious, but yeah. [...] Oh yeah, psychologically, just the word cancer is something. They say there is a life, before and after cancer, and that's true. And I mean purely psychologically.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Because I am sick, but if I die, my wife will be left behind. So psychologically, that also hits deep.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">That my life now completely changes, even if the therapy stops. Yes, I still have to go to the dermatologist's every few months. And you will always be afraid that there is a spot... Yes, I have that now too. So I am diligent in the shower, and I see a spot that I thought, 'that wasn't there before'.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[…]  I also notice that I become more nervous. And that's not my character, because normally when there is a problem I stay calm.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We are very fragile when we arrive at the hospital. [...] Well, I felt very fragile when I entered the room alone, since the lady dropped me off at the entrance, I entered that room at 9AM and I burst into tears. [...] I felt abandoned, totally abandoned and... that's it. It's like being taken to prison.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I think that's very important, for people who, so to speak, are considered to have no treatment options left. That they can have access to potential therapies that might still offer some hope. I think that... Because I think that if you hear that word 'that you are out of treatment options', it's a serious blow. And I think that in some ways one should still try to find something that might work.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So I go telling myself, it's me who will have the upper hand. I added greenery to the garden, just like that. To have shaded areas, things like that. So yeah, psychologically it's like telling myself 'no, I'm not going to let myself be defeated'.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It was almost impossible to get into a practice nearby. I think that's an issue on all health levels. That's not just dermatologists. That's a big issue. Accessibility to a dermatologist. But all the good dermatologists in the are not accapting new patients.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When we call for an appointment, we are given dates, but there are days when you teach, so you say 'well no, I'm not going to be absent'. First of all, because it's not covered, we're not covered for medical appointments, we can't be absent for medical appointments. And so we give up, we postpone all the time, we give up because we know that it's not going to fit in the schedule.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Well I live alone. So I've already had to manage by myself in an emergency. Luckily, the local grocer told me 'there are services to take you to the hospital'. But for the return, I found a friend. I had called a friend without knowing exactly what time I'd be finished and so I had someone just to take me back home. So in the end, I managed by myself, I found someone in the neighborhood - thank you Facebook - who came to pick me up.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I also think that in this case, immunotherapy should be available to the patient in whichever hospital they want to do it, I think that's very important, that we don't have to go to [city], so that should be much better coordinated.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">And on a mental health level, yes... we all know that access to care for psychologists is very difficult. So access to care for psychologists should be made more accessible. But yes, that's a problem, not just for cancer patients. Even people with mental problems have difficulty accessing it, so I think that's important.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[...] now the immunotherapy, that doesn't really affect my daily life that much. But the surgery does. That also has a huge impact on my mobility. And yeah, I don't really feel well supported in that regard. I was bedridden when I came out of the hospital. Which I actually didn't expect.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I also had no idea what to do with my time. I was just lying there, I could hardly do anything physically, but my mind wasn't still. And then I can assure you, everyone says, oh, you can watch Netflix series, so fun. No, it's not fun. For starters, it gets boring after a while, just watching TV all the time [...] So yeah, it was really difficult to find something, to find a meaningful activity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">That's a day trip. I see it as a day trip. It's five, six hours, because it's in [city]. That's an hour and a half that you lie on that bed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It's only when it, when it gets worse and it spreads of course, then it can suddenly go fast of course. [...] So then you're really confronted with it. But the first time, when you think okay it's gone, it's gone, then you get over it pretty quickly, it's not like with something else, if it's in an organ or something, because that's inside you, that's a totally different feeling than when it's on your skin and they cut it away and it's gone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Now we are in the phase where we are actually trying to manage the side effects of immunotherapy, but for me every time I go to the oncology day center, it's still like 'what am I doing here?' Because it's not proven, not even in the literature, that the therapy they are giving me now is not standard, but what is standard of course... So I'm always still in doubt about what they can do... I look at it like this, if you don't have a headache, do you take headache pills? And if there are no tumors, what does that immunotherapy actually do in my body?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I don't know if it already exists, a bit like the campaigns where you can go directly to the doctor, where they have a melanoma day. That's a day for everyone, we inspect everyone's skin. So maybe that? [...] Putting dermatology students, asking them too. Under the supervision of a professor, or whatever. [...] To do... yes, a national screening.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prevention. A campaign around that. Ensuring that there can be good timely detection. Early detection.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">But I think that if something can still evolve in the medical world, then I think that early detection is actually important. Because I'm already going to the dermatologist's every year now and yet we missed it. So, I wonder if there are no other possibilities or methods or devices that can detect it better.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">And then he explained everything to me, in detail, and with the words... uh, the scientific words, and luckily I had a piece of paper and a pen. All the words that I didn't understand at all. At the same time, he explained a little bit anyway, but there were things that I didn't understand, which allowed me to go and look on the internet and understand it, well, at my leisure.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If you look up information, you find two things. Either very simple information, really super simple, that everyone can understand, where things are presented so black and white that you're actually not getting anything out of it, because it's not really about you. Plus, you don't want to recognize yourself in it, because it usually concerns bad prognosis, good prognosis. So that's not good. Well, that's how it is, what's on the 'Kom op tegen Kanker' website, I'm not getting anything out of it. But the other things you search for, the scientific articles, are actually so directed at oncologists, and I'm not an oncologist, so they're too complicated for me and I don't understand enough of them. And even then, you still don't know if you fall into that research population or not. So no, I actually don't find the right information that can help me.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In Flanders, there is the 'Melanoompunt'. The first day I was at [name Flemish hospital], I was still in the hospital when the Melanoompunt called me, saying 'Well, we are now organizing...', it was two weeks later, 'we are organizing the annual meeting, with all patients who have had melanomas, and so you are also part of the melanoma family', you know.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actually, my brother was the reason. A few years ago he had a melanoma and it was surgically removed and that was it. There was no treatment, no follow-up or anything like that. [...] Another reason was also because my sister-in-law died of a melanoma. That made the urgency even greater.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It's clear that the spot was really a textbook case, it looked very much like what you see on posters, and at the same time I thought 'well, no', there you go, so I really went into denial, and it's because... Well, a year ago this spot started to ooze, to itch very strongly, that... that's when I thought... then I showed it to my son, who said 'mom, that's not good', and that's when I decided to go to the dermatologist's.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[...] I never felt the need to say ' I have to regularly see my dermatologist because I'm at risk'. I never had that notion of risk in mind.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No, it wasn't diagnosed through annual check-ups, because nothing was ever found. It's actually because I had a symptom, because I had the swollen lymph node. And it turned out to be the result of a melanoma that had once been there." [...] "So that means that with that metastasis in the lymph node, which was in the lymph node, I was actually already in stage 3, while a melanoma had never been seen. So all those years no melanoma was found. We looked for it, given my brother's story, but no melanoma was found.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">But I think that if something can still evolve in the medical world, then I think that early detection is actually important. [...] Because I want to say now, when I see how a dermatologist examines me, yes, I understand that they can miss that.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, we have to move on. So it's actually a combination of circumstances and even during the examination at [name of the hospital], they didn't even know whether it was a primary melanoma or a metastasis. So for me it's really a difficult case, because I believe that technology should be more advanced. That there is still doubt in the final report... but I think that can happen in the medical world, but my brain doesn't understand it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">And it does take some time, I go every two weeks, on Thursdays for a consultation and on Fridays to get a baxter. Yeah, that takes time. And eventually you have something like, yeah. Because then you have to go to the dermatologist's every few months, I think three months. And then to the eye doctor, because a melanoma can also be in the eye. A dermatologist can't see that. And then you also have to go to the gynaecologist, because you'll also have melanomas there. And so you keep busy with a lot of tests.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So I always kept my phone near me while teaching, telling myself 'well, she'll call me', I'm telling you it was on Tuesday. End of the week, still no news. On Monday, since I still hadn't heard anything, I called [name of the hospital], and then they told me 'oh but the secretary was on vacation, she's coming back tomorrow'.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I just told him that I still had pain... Every time I ate, I had pain, just behind the scar, and then he interrupted me. And he said to me, 'no'.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, of course, that is discussed to some extent. On the other hand, a doctor is also limited in the possibilities. I can only say, from the health insurance and such, there are only a limited number of possibilities to take. And if you meet those conditions, then you can take that therapy. And I mean, that treatment path is also fixed. A doctor doesn't have so much... He does have a number of choices and I can... But there aren't that many choices with melanoma, of course. To say, we're going to do something completely different now.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">And then the surgeon said to me at one of the consultations, yes, what would we do? Would we dare to remove that drain once? And then I thought, I'm not an experiment, either you know it and you remove it, or you don't. It's a statement, people should pay more attention to that. I got the feeling that I was allowed to decide for myself whether we were going to dare to do that or not. And I think that was a way of speaking from that person, but actually I didn't find that appropriate. That didn't really give me confidence, I have to say.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">They explained to me [...] absolutely nothing about what was post-operative... and they didn't ask me any questions." [...] "The surgeon didn't tell me at all during the consultation, that after such an intervention, I had no idea, there are so many weeks of recovery." [...] "No one asked me after the operation if I had someone near me to watch over me, to help me, to uh... and they didn't explain to me that I would need a nurse to change the dressings. They hadn't told me anything.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, about the treatment, about the progress in melanoma research, how to support melanoma research, if there are also things... Life expectancy in relation to the stage, because we see a lot of things, uh... that are contradictory too.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I also do it by doing research on the internet like that. Because I don't get the information from him... He said 'yes, you have to protect yourself' but that's it. Here, I have different organisations, or on Youtube, there are also people who talk about melanoma, and who say 'every three hours' they put on sunscreen, SPF 50. Things like that. Yes, but yes. Internet, a little bit of Youtube because you can find experiences. Sharing experiences. But as for my training, well I go to Pubmed: I know where to look for relevant information. I don't go directly... well I don't go to Google, and I don't search like that. So I have no idea where it stands in that respect, whether good information is being given or not. I don't pay attention.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">But I also have to say, my oncologist also provided the necessary information. Not only to me, but also to my wife, my children. I think my parents called him once. And he took the time every time to explain it, okay, that's it. Here we are now. These are the treatment options.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, parking, I think... I think they should make a separate parking lot for that day center, because it's six euros every time. And I actually think that's too much for... It's not like I'm visiting, but I can't change that they take such a long time... Sometimes I have to sit in that chair or on the bed for three hours. That's not a mortal sin, but I think 6 euros is too much for actually being a patient, a cancer patient. [...] That's not our choice, so they call it a social rate, but I don't think 6 euros is a social rate.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">That is fully reimbursed. I am happy about that. I think I take about 15,000 euros worth of pills per month. So that is fully reimbursed. So I have absolutely no problems with that. Actually, I don't have any consultation fees. But if I just go to the day hospital, the costs are also reimbursed through the hospitalization insurance. So, in essence, I have little financial impact there.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">That there is a care coordinator or a case manager or that you have a personal coach who can guide you through all phases and not necessarily emotionally. Although I think you shouldn't separate these functions. I think you should have an onco-coach who can do everything. Someone who can follow up on the administrative side for you and, because that shouldn't be too much work, but someone who can do that. But someone who can also provide some emotional support. I think you'd get more out of it in that way. I think a psychologist is more in the second line, and is not necessary for everyone. But having a coach who walks alongside you, who holds the baton for you. I think that would be ideal for me. Who also ensures coordination between first line, second line, contacts, and possibly GP if necessary.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, it was nice. [...] But we know that they are all people [...] who have melanoma and so, it actually helps to destress. We say to ourselves, 'well, these are normal people after all'. [...] So there you go. And then we were able to talk to quite a few people, super nice of course. And who all have this perspective of sharing their experience. To take the drama out of the situation a bit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I currently work with, I always forget the name, I work three and a half days a week and one and a half days I'm still on sick leave. Definitely progressive work resumption, for three years now during treatment. That's mainly due to fatigue and concentration problems. If I have a whole day, I have an office job, but when I come home in the evening, I'm just naturally dead tired. [...] So I really need that time to recover a bit and do things.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Because, you know, I think it's better to enjoy life and anyway... I could see that I was too tired, that I wouldn't have been able to handle it, and rather than managing it poorly, it's better to retire. I 've already been eligible for retirement for more than two years anyway.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My wife, she deals with it in her own way, but of course, I make myself a priority, even though that's not right. A bit selfish. But I do have cancer. So you have to be able to put that everything into perspective, but it definitely has an impact on our relationship.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In Belgium, yearly UV awareness campaigns are rolled out. Despite this, inadequate protective practices have been measured, notably during outdoor leisure activities and particularly in young people and outdoor workers.</t>
   </si>
 </sst>
 </file>
@@ -779,7 +779,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -803,39 +803,39 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -843,31 +843,31 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
@@ -875,7 +875,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -883,7 +883,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -891,7 +891,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
@@ -899,7 +899,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -907,7 +907,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
@@ -915,7 +915,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
@@ -923,7 +923,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
@@ -931,7 +931,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
@@ -947,7 +947,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
@@ -955,7 +955,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
         <v>18</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
         <v>19</v>
@@ -971,7 +971,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -979,7 +979,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
         <v>21</v>
@@ -987,7 +987,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
         <v>22</v>
@@ -995,7 +995,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
         <v>23</v>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
         <v>24</v>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
         <v>25</v>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
         <v>26</v>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s">
         <v>27</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s">
         <v>28</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
         <v>29</v>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B36" t="s">
         <v>30</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B37" t="s">
         <v>31</v>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B38" t="s">
         <v>32</v>
@@ -1075,7 +1075,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B39" t="s">
         <v>33</v>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B40" t="s">
         <v>34</v>
@@ -1091,7 +1091,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B41" t="s">
         <v>35</v>
@@ -1099,7 +1099,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B42" t="s">
         <v>36</v>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B43" t="s">
         <v>37</v>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B44" t="s">
         <v>38</v>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B45" t="s">
         <v>39</v>
@@ -1131,7 +1131,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B46" t="s">
         <v>40</v>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B47" t="s">
         <v>41</v>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B48" t="s">
         <v>42</v>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B49" t="s">
         <v>43</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B50" t="s">
         <v>44</v>
@@ -1171,7 +1171,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B51" t="s">
         <v>45</v>
@@ -1179,7 +1179,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B52" t="s">
         <v>46</v>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B53" t="s">
         <v>47</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B54" t="s">
         <v>48</v>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B55" t="s">
         <v>49</v>
@@ -1211,7 +1211,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B56" t="s">
         <v>50</v>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B57" t="s">
         <v>51</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" t="s">
         <v>52</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B60" t="s">
         <v>54</v>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B61" t="s">
         <v>55</v>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B62" t="s">
         <v>56</v>
@@ -1267,7 +1267,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B63" t="s">
         <v>57</v>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B64" t="s">
         <v>58</v>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B65" t="s">
         <v>59</v>
@@ -1291,7 +1291,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B66" t="s">
         <v>60</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B70" t="s">
         <v>64</v>
@@ -1331,7 +1331,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71" t="s">
         <v>65</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>66</v>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
         <v>67</v>
@@ -1355,74 +1355,74 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B75" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B76" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B77" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B78" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B79" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
+        <v>73</v>
+      </c>
+      <c r="B80" t="s">
         <v>74</v>
-      </c>
-      <c r="B80" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B81" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B82" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83">
@@ -1483,7 +1483,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B90" t="s">
         <v>80</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B91" t="s">
         <v>81</v>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B92" t="s">
         <v>82</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B93" t="s">
         <v>83</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B94" t="s">
         <v>84</v>
@@ -1523,55 +1523,55 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B95" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B96" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B97" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="B98" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B101" t="s">
         <v>90</v>
@@ -1579,7 +1579,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B102" t="s">
         <v>91</v>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B103" t="s">
         <v>92</v>
@@ -1595,7 +1595,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B104" t="s">
         <v>93</v>
@@ -1603,655 +1603,655 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B105" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="B106" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="B110" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="B111" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="B116" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="B117" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="B118" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="B119" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="B120" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="B121" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="B122" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="B123" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="B124" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="B125" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="B126" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="B127" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="B128" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="B129" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="B130" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="B134" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="B135" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="B136" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="B137" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="B138" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="B139" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="B140" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="B141" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="B142" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="B143" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="B144" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="B145" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="B146" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="B147" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="B148" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="B149" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="B150" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="B151" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="B152" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="B153" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="B154" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="B155" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="B156" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="B157" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="B158" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="B159" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="B160" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="B161" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="B162" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="B163" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="B164" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="B165" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="B166" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="B167" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="B168" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="B169" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="B170" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="B171" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="B172" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="B173" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="B174" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="B175" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="B176" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="B177" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="B178" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="B179" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="B180" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="B181" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="B182" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="B183" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="B184" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="B185" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="B186" t="s">
         <v>131</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="B187" t="s">
         <v>132</v>
@@ -2267,7 +2267,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="B188" t="s">
         <v>133</v>
@@ -2283,7 +2283,7 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B190" t="s">
         <v>135</v>
@@ -2310,36 +2310,36 @@
         <v>175</v>
       </c>
       <c r="B193" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B194" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B195" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B196" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B197" t="s">
         <v>141</v>

--- a/Data/Cleaned/df_dta_qt_cleaned.xlsx
+++ b/Data/Cleaned/df_dta_qt_cleaned.xlsx
@@ -12,21 +12,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
-  <si>
-    <t xml:space="preserve">ID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+  <si>
+    <t xml:space="preserve">ID_qt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID_dta</t>
   </si>
   <si>
     <t xml:space="preserve">QUOTES</t>
   </si>
   <si>
+    <t xml:space="preserve">I had a little bit of pain in my duodenum as a result, and so he gave me [name antispasmodic] and he said, 'It's going to pass, don’t worry!' and then it went on like that for months and then at some point I had a huge attack of haemorrhoids that I couldn't walk anymore and canker sores in my mouth. I didn't know how to eat anymore. My cheek had swollen, I looked like a hamster.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was big, big cramps in my abdomen. Vomiting all day long.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So I had the symptoms of pain, I had the symptoms of bloating, I had the symptoms of vomiting, I had the symptoms of going to the toilet very regularly, I had this fistula there as well.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[...] so he gave me [name antispasmodic] and he said, 'It's going to pass, don’t worry!' and then it went on like that for months and then at some point I had [...] canker sores in my mouth. I didn't know how to eat anymore. My cheek had swollen, I looked like a hamster.”</t>
+  </si>
+  <si>
     <t xml:space="preserve">I used to take long naps, spend a lot of time on the couch, and I kept telling my mom all the time 'I'm incubating something, I don't know what'. And I didn't have a fever, but I felt my brain heating up, really. I felt there was inflammation but I didn't have a fever.</t>
   </si>
   <si>
-    <t xml:space="preserve">It was big, big cramps in my abdomen. Vomiting all day long.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So I had the symptoms of pain, I had the symptoms of bloating, I had the symptoms of vomiting, I had the symptoms of going to the toilet very regularly, I had this fistula there as well.</t>
+    <t xml:space="preserve">I don't just say because I also have a lot of rheumatological problems. And finally, spondylitis has now come out as well. So I explain that in such a way that I also have very diverse complaints. Not just gut-related.</t>
   </si>
   <si>
     <t xml:space="preserve">Been home for a week, and I found the fatigue very heavy, I would always sleep and sleep and at one point I said, I have to get over it.“</t>
@@ -35,16 +47,19 @@
     <t xml:space="preserve">Of course, you can't do much during a crisis. Standing up for ten minutes is actually a long time. It was a while ago, but I can still remember it well. It was actually constantly walking to and from the toilet.</t>
   </si>
   <si>
-    <t xml:space="preserve">I don't just say because I also have a lot of rheumatological problems. And finally, spondylitis has now come out as well. So I explain that in such a way that I also have very diverse complaints. Not just gut-related.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I had a little bit of pain in my duodenum as a result, and so he gave me [name antispasmodic] and he said, 'It's going to pass, don’t worry!' and then it went on like that for months and then at some point I had a huge attack of haemorrhoids that I couldn't walk anymore and canker sores in my mouth. I didn't know how to eat anymore. My cheek had swollen, I looked like a hamster.”</t>
-  </si>
-  <si>
     <t xml:space="preserve">That was the first time I didn't really know I had it, and then I had lost ten kilos, I wasn't well at all and then I was hospitalised. I had lost ten kilos at the time, dehydrated. I was actually in the hospital for ten days.</t>
   </si>
   <si>
-    <t xml:space="preserve">[...] so he gave me [name antispasmodic] and he said, 'It's going to pass, don’t worry!' and then it went on like that for months and then at some point I had [...] canker sores in my mouth. I didn't know how to eat anymore. My cheek had swollen, I looked like a hamster.”</t>
+    <t xml:space="preserve">Well, actually, it's still something, I always feel like [...] yes, the image of having a sword of Damocles hanging over your head.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I went to a psychologist once, back then because of my hands. Then I became really desperate. I could hardly wash my hands, that pain, everything I touched. And I knew it was irreversible. And maybe it was even getting worse.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I always have to have a toilet within reach. So every time I go, a shop- ah there's a toilet. A city, in that shop, I can go there. So in the back of my mind, because if I have to go, I have to go. So at that time there were such thick sanitary pads. Those pants, diaper pants, that didn't exist back then. So yes, I was always insecure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physically, it's not visible when we're not feeling well, so it's not like having a broken arm or a cast on your foot, people don't see it and so it's like 'stop complaining'. We're in pain, we turn white because of the pain, but people don't realize it. So no, the people around us don't understand”</t>
   </si>
   <si>
     <t xml:space="preserve">Well, there were periods that I think were too short, unfortunately, where I was able to rest physically and psychologically because things were getting better, but in the end you're never at ease.</t>
@@ -53,16 +68,34 @@
     <t xml:space="preserve">I went for a walk, I had just eaten, and now, fortunately, it was in the woods but [...] Then a little accident and then psychologically well, I wasn't ready. And it's silly because we tell ourselves it can happen to anyone in fact but, yes it still has a psychological impact.”</t>
   </si>
   <si>
-    <t xml:space="preserve">Well, actually, it's still something, I always feel like [...] yes, the image of having a sword of Damocles hanging over your head.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I went to a psychologist once, back then because of my hands. Then I became really desperate. I could hardly wash my hands, that pain, everything I touched. And I knew it was irreversible. And maybe it was even getting worse.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I always have to have a toilet within reach. So every time I go, a shop- ah there's a toilet. A city, in that shop, I can go there. So in the back of my mind, because if I have to go, I have to go. So at that time there were such thick sanitary pads. Those pants, diaper pants, that didn't exist back then. So yes, I was always insecure.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Physically, it's not visible when we're not feeling well, so it's not like having a broken arm or a cast on your foot, people don't see it and so it's like 'stop complaining'. We're in pain, we turn white because of the pain, but people don't realize it. So no, the people around us don't understand”</t>
+    <t xml:space="preserve">I have a deformed belly, my belly button is not symmetrical. I have a hernia that will stay there because I had a mesh but now the hernia won't go away. So sometimes it looks like I'm pregnant, but only on one side when people see me in profile on the bus, they say to me 'you want to sit down, miss?”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“I was also on the two for a few months, so both [name immunomodulator A] and [name TNF inhibitor A], but that turned out to be very heavy. I was very, very tired. The fatigue, both on [name immunomodulator A] and [name TNF inhibitor A], is actually the same</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here with the treatment, the first performance didn't go very well so I was really knocked out for 2-3 days or more.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was nauseous all the time, nothing was going through [...] I had loss of appetite. I'm going to say, I was making myself food, I was like, 'oh, that looks great,' and then when I got to the front of the dish, it was impossible to eat.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Only half (name immunomodulator A) and I'm vomiting over the toilet. And then (name immunomodulator A), I've had that. But that was stopped each time, because I couldn't tolerate it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“ And then the [name immunomodulator A], if you think back to that, it's been a few years, I had skin rashes so quickly, so itchy, red skin and quick itching, especially when I came out of the shower like that, very dry skin too.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“ [...] Yes, I also have that as an additional side-effect of taking that medication. So it is not Crohn's-related, but medication-related that I have skin cancer. This is partly due to [name immunomodulator A]. According to the dermatologist, the main cause is [name immunomodulator A]. But of course, it is also partly maintained by the immune-suppressing infusions I receive. Like [name TNF inhibitor B] and so on.“</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“ Yes. I also realize that every medicine will have its side effects, and that is not always easy, and  sometimes there is some fear involved. But there is not much you can do about it, except of course wait and see how it goes. But that's not very pleasant. “</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How can I put it... To be done... Having a wound packed with gauze for almost a year is still long, painful, not only physically but psychologically it's, that's it... Every day, having this care is difficult. [...] It's heavy, even in terms of organization, and then that's it psychologically and all that.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's not just Crohn's, there's the operations, there's the effects of the operations, it plays a psychological role because we're not prepared to go back and forth to the hospital. We were promised that the bag would be the miracle solution, and it's true that I had regained a quality of life in terms of bowel movements and  pain,  but I got other things in return.” ""So in the end you say thank you to the package without asking too many questions, and it's only afterwards, when you read the list of side effects, that you say to yourself 'oh, that's quite something! Was it really a good thing after all?' But at that point it's too late.”</t>
   </si>
   <si>
     <t xml:space="preserve">“ I also had surgery [...] then started taking medication and then nothing more. Immediately no more complaints, no cramps, diarrhoea though. The need to go to the toilet, yes, but for the rest never nothing anymore.”</t>
@@ -86,34 +119,34 @@
     <t xml:space="preserve">I've learned, and that's it, just to know myself. [...] From the information I've seen or read, there wasn't really any instructions saying "you have Crohn's disease so you can't eat this anymore because it's going to have a negative impact". You had to see for yourself.”</t>
   </si>
   <si>
-    <t xml:space="preserve">“ Yes. I also realize that every medicine will have its side effects, and that is not always easy, and  sometimes there is some fear involved. But there is not much you can do about it, except of course wait and see how it goes. But that's not very pleasant. “</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How can I put it... To be done... Having a wound packed with gauze for almost a year is still long, painful, not only physically but psychologically it's, that's it... Every day, having this care is difficult. [...] It's heavy, even in terms of organization, and then that's it psychologically and all that.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It's not just Crohn's, there's the operations, there's the effects of the operations, it plays a psychological role because we're not prepared to go back and forth to the hospital. We were promised that the bag would be the miracle solution, and it's true that I had regained a quality of life in terms of bowel movements and  pain,  but I got other things in return.” ""So in the end you say thank you to the package without asking too many questions, and it's only afterwards, when you read the list of side effects, that you say to yourself 'oh, that's quite something! Was it really a good thing after all?' But at that point it's too late.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“I was also on the two for a few months, so both [name immunomodulator A] and [name TNF inhibitor A], but that turned out to be very heavy. I was very, very tired. The fatigue, both on [name immunomodulator A] and [name TNF inhibitor A], is actually the same</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here with the treatment, the first performance didn't go very well so I was really knocked out for 2-3 days or more.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“ And then the [name immunomodulator A], if you think back to that, it's been a few years, I had skin rashes so quickly, so itchy, red skin and quick itching, especially when I came out of the shower like that, very dry skin too.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“ [...] Yes, I also have that as an additional side-effect of taking that medication. So it is not Crohn's-related, but medication-related that I have skin cancer. This is partly due to [name immunomodulator A]. According to the dermatologist, the main cause is [name immunomodulator A]. But of course, it is also partly maintained by the immune-suppressing infusions I receive. Like [name TNF inhibitor B] and so on.“</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I was nauseous all the time, nothing was going through [...] I had loss of appetite. I'm going to say, I was making myself food, I was like, 'oh, that looks great,' and then when I got to the front of the dish, it was impossible to eat.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Only half (name immunomodulator A) and I'm vomiting over the toilet. And then (name immunomodulator A), I've had that. But that was stopped each time, because I couldn't tolerate it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I have a deformed belly, my belly button is not symmetrical. I have a hernia that will stay there because I had a mesh but now the hernia won't go away. So sometimes it looks like I'm pregnant, but only on one side when people see me in profile on the bus, they say to me 'you want to sit down, miss?”</t>
+    <t xml:space="preserve">No, the information was not clearly given and all the aspects of the disease, what was going to change, the heaviness of a treatment. Because in the end we are given pills, we don't realize what it is, but ultimately it is still a treatment that I consider quite heavy, with very significant side effects.  And we don't talk about that.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“ If I don't understand it, they need to make it clear, I wait until I understand it, even if it's difficult. It's because I've seen so many of them pass by, I don't take it from an assistant if he doesn't make the effort. I don't put any more energy into it. My wife thought that was weird too, and when you have the professor and you explain it, they agree with you. You have to know what they're going to do and why they're going to do it.“</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“ It had been a week I remember, so I went to my GP's. My GP told me "well, [patient's name], you're having a little gastro", uh a week off, and it still wasn't okay, the pain was getting worse and worse, I couldn't get up, I had a high fever, I lost more than 7 kilos in a week, and uh then I called my doctor back and I said "Listen,  There's still something, it's not right" and from there he actually sent me to the emergency room.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We fiddled a little bit with the diagnosis, I have to admit that..." I even went as far as [Name of University Hospital] in an ambulance to see a specialist at the time, to confirm the disease. I remember being hospitalized for a long time, I think I stayed in the hospital for a month and a half, on an empty stomach, with a central line – which had to be changed twice by the way – well... I think that, at the moment, compared to that, it's a little bit simpler. But that's the memory I have of it, a long diagnosis, a long hospitalization, and a trip to the university hospital to confirm the diagnosis.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I first consulted in small neighbourhood polyclinics... I was a student so I didn't know Brussels very very well at the time [...] well, it was slow progress. And then I was lucky at some point, as I was being sent from one to the other, to have a friend whose brother was a very young paediatrician and who worked at [name of university hospital],  and who said, "Look, she absolutely has to go to a university hospital, whichever one" that's it. [Name of university hospital] was the closest, and I ended up at [name of university hospital], and there it was diagnosed very quickly.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“ Yes. A university hospital at that time was more advanced, especially in terms of research. And the rest follows. Yes, those are smaller hospitals. I think now, yes, do investigations like the doctor did, I don't think they do that in small hospitals. “</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What I often notice with doctors is that they have their specialty, so he looked at the gynaecological aspects. My baby was fine, so he made me understand that the rest was in my head. But it wasn't in my head, I was really not well. “ [...] Because it wasn't related to the baby... And finally the first gastroenterologist I saw, but him, he would only see my intestine.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But it went on for a long time and at the time we were doing... The whole series: colonoscopy certainly [...]. We were doing a whole series of exams but extremely... Well, I was 18 years old and didn't know anything about it, so it was extremely difficult to live with.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So I had tests and was finally diagnosed in 2013. [...] I waited almost two... I'm going to say at least a year and a half between the time I said to myself "hey, there's something wrong" and doing the process. [...] Yes, I think it was towards the end of 2012 that he sent me to a specialist and uh, well the time to get the appointments etc., I had the final diagnosis in... I think it was early 2013.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On the other hand, there are very long delays for MRIs, for CT scans, well that's absurd, you have to contact... I had to contact several hospitals to get my MRI done at the request of the rheumatologist. It was three months huh, for the MRI. Finally I tried at another hospital and there was a place that had become available and it was a month of waiting, but for the psychiatrist it was the same thing, you had to wait more than a month before seeing the psychiatrist. So still it's.. Yes, there are long... longer and longer waiting times.”</t>
   </si>
   <si>
     <t xml:space="preserve">Finally, it's rare to find a competent doctor, but I still went through several doctors to really find the rare pearl  who was able to put a good treatment in place.</t>
@@ -146,6 +179,15 @@
     <t xml:space="preserve">I explained to you the famous 3 hours I spent with the [name TNF inhibitor] one time in the day hospital. Often we were next to someone else who had Crohn's disease, and I thought it was quite an interesting approach, because there was a lot of sharing of experiences when we were a bit stuck in the hospital. [...] And frankly, I got a lot out of it at the time. This may be the only bright spot of the day-hospital back when I had my [name TNF inhibitor].”</t>
   </si>
   <si>
+    <t xml:space="preserve">“ But we decided that together. And afterwards, with the flare-up, it was also very well discussed with the gastroenterologist that they should keep in mind with the rheumatologist that we have to work together and look at it together. “</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At one point he told me 'you absolutely have to take corticosteroids again', I said 'no, I don't want to'. So basically we made a deal (laughs), ... It's laughable but that's the way it is.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The contrast is evident again between [hospital], for example, when you say okay, we're going to start with this, and it's like okay, this is it. While in [region], they literally had brochures, you name it, those and those options, that you can choose from: that, that, that or that. So you did indeed have much more say, much more control. As it were, patients had the last word in [region]. There you could really say. “</t>
+  </si>
+  <si>
     <t xml:space="preserve">So I went to the specialist, who explained to me that I'm going to get those biologicals, that it's with baxters. And then I went to the IBD nurse and then I don't remember exactly who told me what, but in the end everything was communicated to me well, with a cover, with a booklet, with everything you want. “</t>
   </si>
   <si>
@@ -158,43 +200,25 @@
     <t xml:space="preserve">Oh no, no, my doctor, uh... I'm telling you, sometimes I'm the one who has to ask for a vaccination: "Do you think I should get vaccinated, Doctor?" So "yes, obviously you have to get vaccinated, because you have low immunity." "Oh well, thank you for telling me!" "Do I have to go see the dermatologist Doctor?", "Oh yes yes, of course you..." “. But frankly no, it's not through my doctor that I found the info, no it's me.”</t>
   </si>
   <si>
-    <t xml:space="preserve">No, the information was not clearly given and all the aspects of the disease, what was going to change, the heaviness of a treatment. Because in the end we are given pills, we don't realize what it is, but ultimately it is still a treatment that I consider quite heavy, with very significant side effects.  And we don't talk about that.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“ If I don't understand it, they need to make it clear, I wait until I understand it, even if it's difficult. It's because I've seen so many of them pass by, I don't take it from an assistant if he doesn't make the effort. I don't put any more energy into it. My wife thought that was weird too, and when you have the professor and you explain it, they agree with you. You have to know what they're going to do and why they're going to do it.“</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“ But we decided that together. And afterwards, with the flare-up, it was also very well discussed with the gastroenterologist that they should keep in mind with the rheumatologist that we have to work together and look at it together. “</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At one point he told me 'you absolutely have to take corticosteroids again', I said 'no, I don't want to'. So basically we made a deal (laughs), ... It's laughable but that's the way it is.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The contrast is evident again between [hospital], for example, when you say okay, we're going to start with this, and it's like okay, this is it. While in [region], they literally had brochures, you name it, those and those options, that you can choose from: that, that, that or that. So you did indeed have much more say, much more control. As it were, patients had the last word in [region]. There you could really say. “</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“ It had been a week I remember, so I went to my GP's. My GP told me "well, [patient's name], you're having a little gastro", uh a week off, and it still wasn't okay, the pain was getting worse and worse, I couldn't get up, I had a high fever, I lost more than 7 kilos in a week, and uh then I called my doctor back and I said "Listen,  There's still something, it's not right" and from there he actually sent me to the emergency room.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We fiddled a little bit with the diagnosis, I have to admit that..." I even went as far as [Name of University Hospital] in an ambulance to see a specialist at the time, to confirm the disease. I remember being hospitalized for a long time, I think I stayed in the hospital for a month and a half, on an empty stomach, with a central line – which had to be changed twice by the way – well... I think that, at the moment, compared to that, it's a little bit simpler. But that's the memory I have of it, a long diagnosis, a long hospitalization, and a trip to the university hospital to confirm the diagnosis.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I first consulted in small neighbourhood polyclinics... I was a student so I didn't know Brussels very very well at the time [...] well, it was slow progress. And then I was lucky at some point, as I was being sent from one to the other, to have a friend whose brother was a very young paediatrician and who worked at [name of university hospital],  and who said, "Look, she absolutely has to go to a university hospital, whichever one" that's it. [Name of university hospital] was the closest, and I ended up at [name of university hospital], and there it was diagnosed very quickly.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“ Yes. A university hospital at that time was more advanced, especially in terms of research. And the rest follows. Yes, those are smaller hospitals. I think now, yes, do investigations like the doctor did, I don't think they do that in small hospitals. “</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What I often notice with doctors is that they have their specialty, so he looked at the gynaecological aspects. My baby was fine, so he made me understand that the rest was in my head. But it wasn't in my head, I was really not well. “ [...] Because it wasn't related to the baby... And finally the first gastroenterologist I saw, but him, he would only see my intestine.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">But it went on for a long time and at the time we were doing... The whole series: colonoscopy certainly [...]. We were doing a whole series of exams but extremely... Well, I was 18 years old and didn't know anything about it, so it was extremely difficult to live with.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So I had tests and was finally diagnosed in 2013. [...] I waited almost two... I'm going to say at least a year and a half between the time I said to myself "hey, there's something wrong" and doing the process. [...] Yes, I think it was towards the end of 2012 that he sent me to a specialist and uh, well the time to get the appointments etc., I had the final diagnosis in... I think it was early 2013.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On the other hand, there are very long delays for MRIs, for CT scans, well that's absurd, you have to contact... I had to contact several hospitals to get my MRI done at the request of the rheumatologist. It was three months huh, for the MRI. Finally I tried at another hospital and there was a place that had become available and it was a month of waiting, but for the psychiatrist it was the same thing, you had to wait more than a month before seeing the psychiatrist. So still it's.. Yes, there are long... longer and longer waiting times.”</t>
+    <t xml:space="preserve">“ The car park always counts as a day visit. Tomorrow it will be about 6 euros again. But we just have to accept that. On an annual basis, this does add-up.“</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“But I just turned 65 in February, so I was two months late. I would have gotten more subsidies for that stairlift to be installed. So the family doctor should have informed me better about that. I didn't know. You're too late. If we have it installed now, I will miss out on  6,000 €. So that's a lot of money.“</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The fact that I had this illness, for example, meant I had an increase in my life insurance. After the operation, […] I asked the [name of the specialist] to write me a report saying that there was a remission at that level, to see if there was any way to reduce that insurance. That's what he did, and on the paper it said "total clinical remission." Since the operation, I really don't have anything. And even with that, the insurance doesn't want to diminish.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnesium, calcium when I was taking cortisone etc., well all that, it's still quite expensive, probiotics etc. Well, these are things that you have to take as a supplement in the end, but uh... So all this is not reimbursed, but on the other hand all the medical appointments related to the disease, so all the blood tests, additional analyses, the little that is still at our expense is still reimbursed by the public health insurance company. But here's the thing, not everything that's a treatment add-on is reimbursed. And so sometimes I get it for […] Yes, 150€ per month some months.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luckily, I have my hospitalisation insurance which covers everything, 100%. Otherwise it's every 6 weeks, it's 60€ huh. At my expense. Because hey, that's the cost too. There are some who don't work, it's quite expensive 60.5€, 60€ every six weeks. [...] It's still a budget. “ [...] "(Name Proton Pump Inhibitor) which is not reimbursed, before I took (Name immunomodulator) it was reimbursed, and then after we had to pay 3€, you will say 3€ is cheap for a box of 100... But in the long run, if you take 3 a day it's 3€ a month, but hey, in the long run... Before it was free, why it is no longer free, we don't know. “ [...] "The (proton pump inhibitor) I take 20 mg but I use 40 and I cut it in half because it's cheaper, and I buy the big boxes [...] This plus this, plus this, plus this... And then we don't just have Crohn's, there are some who have ankylosing spondyloarthritis, there are some who have psoriasis, there are some who have this, there are some who have that, plus the drugs of other pathologies it easily adds up to... 100€, huh. Even with the reimbursement of the health insurance, we're looking at between 50 and 100€ per month, for sure.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“ And then I only took the codeine, because everything else was unnecessary anyway. It becomes very expensive, because it is all manual work. So I decided to abandon that approach. [...] On average, I spend 130€ per month on medication. Yes, once you're retired, that really adds up. “</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you do a stool analysis... um, blood, there are some elements that are not reimbursed. I'm going to take for example vitamin B12. In Crohn's disease, when we have had resections, there is a whole part of the intestine that can no longer absorb B vitamins or iron, etc. And it's still due to the disease, so why are these vitamins, for example vitamin B12 analysis, not reimbursed? </t>
   </si>
   <si>
     <t xml:space="preserve">Well, I've always been extremely independent, but my husband has often accompanied me because it's true that when you're in a crisis, you actually can't do anything.</t>
@@ -233,31 +257,100 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Magnesium, calcium when I was taking cortisone etc., well all that, it's still quite expensive, probiotics etc. Well, these are things that you have to take as a supplement in the end, but uh... So all this is not reimbursed, but on the other hand all the medical appointments related to the disease, so all the blood tests, additional analyses, the little that is still at our expense is still reimbursed by the public health insurance company. But here's the thing, not everything that's a treatment add-on is reimbursed. And so sometimes I get it for […] Yes, 150€ per month some months.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luckily, I have my hospitalisation insurance which covers everything, 100%. Otherwise it's every 6 weeks, it's 60€ huh. At my expense. Because hey, that's the cost too. There are some who don't work, it's quite expensive 60.5€, 60€ every six weeks. [...] It's still a budget. “ [...] "(Name Proton Pump Inhibitor) which is not reimbursed, before I took (Name immunomodulator) it was reimbursed, and then after we had to pay 3€, you will say 3€ is cheap for a box of 100... But in the long run, if you take 3 a day it's 3€ a month, but hey, in the long run... Before it was free, why it is no longer free, we don't know. “ [...] "The (proton pump inhibitor) I take 20 mg but I use 40 and I cut it in half because it's cheaper, and I buy the big boxes [...] This plus this, plus this, plus this... And then we don't just have Crohn's, there are some who have ankylosing spondyloarthritis, there are some who have psoriasis, there are some who have this, there are some who have that, plus the drugs of other pathologies it easily adds up to... 100€, huh. Even with the reimbursement of the health insurance, we're looking at between 50 and 100€ per month, for sure.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“ And then I only took the codeine, because everything else was unnecessary anyway. It becomes very expensive, because it is all manual work. So I decided to abandon that approach. [...] On average, I spend 130€ per month on medication. Yes, once you're retired, that really adds up. “</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you do a stool analysis... um, blood, there are some elements that are not reimbursed. I'm going to take for example vitamin B12. In Crohn's disease, when we have had resections, there is a whole part of the intestine that can no longer absorb B vitamins or iron, etc. And it's still due to the disease, so why are these vitamins, for example vitamin B12 analysis, not reimbursed? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">“ The car park always counts as a day visit. Tomorrow it will be about 6 euros again. But we just have to accept that. On an annual basis, this does add-up.“</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“But I just turned 65 in February, so I was two months late. I would have gotten more subsidies for that stairlift to be installed. So the family doctor should have informed me better about that. I didn't know. You're too late. If we have it installed now, I will miss out on  6,000 €. So that's a lot of money.“</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The fact that I had this illness, for example, meant I had an increase in my life insurance. After the operation, […] I asked the [name of the specialist] to write me a report saying that there was a remission at that level, to see if there was any way to reduce that insurance. That's what he did, and on the paper it said "total clinical remission." Since the operation, I really don't have anything. And even with that, the insurance doesn't want to diminish.”</t>
+    <t xml:space="preserve">I'm out of breath all the time, I can't allow myself to, to walk, to live properly, the way I normally want to live. For example, if I go for a walk in the woods, I used to really feel the air passing through my lungs, I really felt like I was living. Now, well, when I breathe, I breathe, well, I really have the impression that, that I'm not even taking advantage of, it's as if I didn't know how to breathe entirely in fact, it's, it's, it's unpleasant.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Having trouble finding words, not being able to finish sentences, having a lot of trouble concentrating (e.g. during work, asking yourself every 5 minutes what you were doing now... which folder did I want to open again' or “what was I going to do next”), confused in the sense that you very often forget things or sometimes have the feeling that you are in a fog where everything is blurred in your head for a moment, these are all symptoms that I never had before the disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">you could say yes, everyone is tired sometimes and then your brain sometimes fails, but this is much worse than that and also abnormal that it remains so frequently present.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After maybe doing the dishes I had to go to bed, it was always a case of rest and activity. I knew that my day had to be broken down into several, several, come on, several, stages".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taste and smell disorders, and more specifically parosmia. Many tastes and smells do not correspond to what I knew before COVID. A single smell and taste (that I don't know) replaces all of them. I'm at the stage where I can't stand to stay in the kitchen when our breads are baking in the oven.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muscle aches: as soon as I exert myself, I ache all over. As much as I used to do sport regularly... here I've lost all my muscles. I'm back to 0. When I lift my weights and struggle to finish my set, afterwards I can't even hold my phone in my hand because I've lost all my strength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insomnia. I have that too. So I'm tremendously tired, but at night I can't sleep. Yes yes. That you actually lie awake at night. I'm downstairs. I'm tired, I crawl into bed. Uh I sleep for two hours, three hours, and then it's done at one time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yoga is very slow and gentle, without too much pushing. The emphasis is on activating the parasympathetic nervous system to stop the fight-or-flight response of the nervous system. Indeed, the autonomic nervous system seems to be affected by COVID. In mindfulness, I try to focus on positive things and accept that the situation is as it is.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I learned relaxation techniques through a relaxation therapist to fall back asleep when I wake up at night with muscle tension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There were no tests available in March 2020 for young, healthy people with mild symptoms like me. Contact through the GP was only by phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moreover, the doctor I normally consult was not available. So I had to make do with a telephone consultation with someone who did not know me as a patient at all.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I more or less made the diagnosis myself. You read about it, actively look up information and draw your conclusion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was a bit disturbing because you feel a whole series of symptoms and... there's nothing you can do but wait for it to pass... and as in some cases it takes a very long time, you wonder if it's imaginary... in short, you doubt your own mental health...".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My doctor even told me: but ma'am, why should I refer you to specialists to do all kinds of tests if they are not going to find anything anyway? That way you'll soon be the end of the story[...] Everything is so eagerly shoved under the mat of psychosomatic anyway...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes. My body can't handle that weight anymore. With the mobility scooter it's better now. I sit and now I always bring my walking stick with me. Because yes, if we're somewhere and I have to go pee, I have to take my walking stick. For all the places you don't know. At home, I can walk around here and there. That's different. There, fortunately, I don't need my walking stick yet.</t>
   </si>
   <si>
     <t xml:space="preserve">“I think that the melanoma itself took energy during the first two months, two, three months. […]  it consumes energy during the moments when you have to undergo tests and wait for results and such.</t>
   </si>
   <si>
-    <t xml:space="preserve">Yes. My body can't handle that weight anymore. With the mobility scooter it's better now. I sit and now I always bring my walking stick with me. Because yes, if we're somewhere and I have to go pee, I have to take my walking stick. For all the places you don't know. At home, I can walk around here and there. That's different. There, fortunately, I don't need my walking stick yet.</t>
+    <t xml:space="preserve">Yes, that's a blow when you hear that. Because you know first of all: cancer, that's already something. The word cancer. Then melanoma, you know, that's really something serious. All cancer is serious, but yeah. [...] Oh yeah, psychologically, just the word cancer is something. They say there is a life, before and after cancer, and that's true. And I mean purely psychologically.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Because I am sick, but if I die, my wife will be left behind. So psychologically, that also hits deep.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That my life now completely changes, even if the therapy stops. Yes, I still have to go to the dermatologist's every few months. And you will always be afraid that there is a spot... Yes, I have that now too. So I am diligent in the shower, and I see a spot that I thought, 'that wasn't there before'.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[…]  I also notice that I become more nervous. And that's not my character, because normally when there is a problem I stay calm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are very fragile when we arrive at the hospital. [...] Well, I felt very fragile when I entered the room alone, since the lady dropped me off at the entrance, I entered that room at 9AM and I burst into tears. [...] I felt abandoned, totally abandoned and... that's it. It's like being taken to prison.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I think that's very important, for people who, so to speak, are considered to have no treatment options left. That they can have access to potential therapies that might still offer some hope. I think that... Because I think that if you hear that word 'that you are out of treatment options', it's a serious blow. And I think that in some ways one should still try to find something that might work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So I go telling myself, it's me who will have the upper hand. I added greenery to the garden, just like that. To have shaded areas, things like that. So yeah, psychologically it's like telling myself 'no, I'm not going to let myself be defeated'.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was almost impossible to get into a practice nearby. I think that's an issue on all health levels. That's not just dermatologists. That's a big issue. Accessibility to a dermatologist. But all the good dermatologists in the are not accapting new patients.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When we call for an appointment, we are given dates, but there are days when you teach, so you say 'well no, I'm not going to be absent'. First of all, because it's not covered, we're not covered for medical appointments, we can't be absent for medical appointments. And so we give up, we postpone all the time, we give up because we know that it's not going to fit in the schedule.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Well I live alone. So I've already had to manage by myself in an emergency. Luckily, the local grocer told me 'there are services to take you to the hospital'. But for the return, I found a friend. I had called a friend without knowing exactly what time I'd be finished and so I had someone just to take me back home. So in the end, I managed by myself, I found someone in the neighborhood - thank you Facebook - who came to pick me up.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I also think that in this case, immunotherapy should be available to the patient in whichever hospital they want to do it, I think that's very important, that we don't have to go to [city], so that should be much better coordinated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And on a mental health level, yes... we all know that access to care for psychologists is very difficult. So access to care for psychologists should be made more accessible. But yes, that's a problem, not just for cancer patients. Even people with mental problems have difficulty accessing it, so I think that's important.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[...] now the immunotherapy, that doesn't really affect my daily life that much. But the surgery does. That also has a huge impact on my mobility. And yeah, I don't really feel well supported in that regard. I was bedridden when I came out of the hospital. Which I actually didn't expect.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I also had no idea what to do with my time. I was just lying there, I could hardly do anything physically, but my mind wasn't still. And then I can assure you, everyone says, oh, you can watch Netflix series, so fun. No, it's not fun. For starters, it gets boring after a while, just watching TV all the time [...] So yeah, it was really difficult to find something, to find a meaningful activity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That's a day trip. I see it as a day trip. It's five, six hours, because it's in [city]. That's an hour and a half that you lie on that bed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's only when it, when it gets worse and it spreads of course, then it can suddenly go fast of course. [...] So then you're really confronted with it. But the first time, when you think okay it's gone, it's gone, then you get over it pretty quickly, it's not like with something else, if it's in an organ or something, because that's inside you, that's a totally different feeling than when it's on your skin and they cut it away and it's gone.</t>
   </si>
   <si>
     <t xml:space="preserve">Now we are in the phase where we are actually trying to manage the side effects of immunotherapy, but for me every time I go to the oncology day center, it's still like 'what am I doing here?' Because it's not proven, not even in the literature, that the therapy they are giving me now is not standard, but what is standard of course... So I'm always still in doubt about what they can do... I look at it like this, if you don't have a headache, do you take headache pills? And if there are no tumors, what does that immunotherapy actually do in my body?</t>
@@ -272,16 +365,31 @@
     <t xml:space="preserve">But I think that if something can still evolve in the medical world, then I think that early detection is actually important. Because I'm already going to the dermatologist's every year now and yet we missed it. So, I wonder if there are no other possibilities or methods or devices that can detect it better.</t>
   </si>
   <si>
-    <t xml:space="preserve">That's a day trip. I see it as a day trip. It's five, six hours, because it's in [city]. That's an hour and a half that you lie on that bed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It's only when it, when it gets worse and it spreads of course, then it can suddenly go fast of course. [...] So then you're really confronted with it. But the first time, when you think okay it's gone, it's gone, then you get over it pretty quickly, it's not like with something else, if it's in an organ or something, because that's inside you, that's a totally different feeling than when it's on your skin and they cut it away and it's gone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[...] now the immunotherapy, that doesn't really affect my daily life that much. But the surgery does. That also has a huge impact on my mobility. And yeah, I don't really feel well supported in that regard. I was bedridden when I came out of the hospital. Which I actually didn't expect.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I also had no idea what to do with my time. I was just lying there, I could hardly do anything physically, but my mind wasn't still. And then I can assure you, everyone says, oh, you can watch Netflix series, so fun. No, it's not fun. For starters, it gets boring after a while, just watching TV all the time [...] So yeah, it was really difficult to find something, to find a meaningful activity.</t>
+    <t xml:space="preserve">And then he explained everything to me, in detail, and with the words... uh, the scientific words, and luckily I had a piece of paper and a pen. All the words that I didn't understand at all. At the same time, he explained a little bit anyway, but there were things that I didn't understand, which allowed me to go and look on the internet and understand it, well, at my leisure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you look up information, you find two things. Either very simple information, really super simple, that everyone can understand, where things are presented so black and white that you're actually not getting anything out of it, because it's not really about you. Plus, you don't want to recognize yourself in it, because it usually concerns bad prognosis, good prognosis. So that's not good. Well, that's how it is, what's on the 'Kom op tegen Kanker' website, I'm not getting anything out of it. But the other things you search for, the scientific articles, are actually so directed at oncologists, and I'm not an oncologist, so they're too complicated for me and I don't understand enough of them. And even then, you still don't know if you fall into that research population or not. So no, I actually don't find the right information that can help me.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Flanders, there is the 'Melanoompunt'. The first day I was at [name Flemish hospital], I was still in the hospital when the Melanoompunt called me, saying 'Well, we are now organizing...', it was two weeks later, 'we are organizing the annual meeting, with all patients who have had melanomas, and so you are also part of the melanoma family', you know.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actually, my brother was the reason. A few years ago he had a melanoma and it was surgically removed and that was it. There was no treatment, no follow-up or anything like that. [...] Another reason was also because my sister-in-law died of a melanoma. That made the urgency even greater.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's clear that the spot was really a textbook case, it looked very much like what you see on posters, and at the same time I thought 'well, no', there you go, so I really went into denial, and it's because... Well, a year ago this spot started to ooze, to itch very strongly, that... that's when I thought... then I showed it to my son, who said 'mom, that's not good', and that's when I decided to go to the dermatologist's.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[...] I never felt the need to say ' I have to regularly see my dermatologist because I'm at risk'. I never had that notion of risk in mind.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, it wasn't diagnosed through annual check-ups, because nothing was ever found. It's actually because I had a symptom, because I had the swollen lymph node. And it turned out to be the result of a melanoma that had once been there." [...] "So that means that with that metastasis in the lymph node, which was in the lymph node, I was actually already in stage 3, while a melanoma had never been seen. So all those years no melanoma was found. We looked for it, given my brother's story, but no melanoma was found.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But I think that if something can still evolve in the medical world, then I think that early detection is actually important. [...] Because I want to say now, when I see how a dermatologist examines me, yes, I understand that they can miss that.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, we have to move on. So it's actually a combination of circumstances and even during the examination at [name of the hospital], they didn't even know whether it was a primary melanoma or a metastasis. So for me it's really a difficult case, because I believe that technology should be more advanced. That there is still doubt in the final report... but I think that can happen in the medical world, but my brain doesn't understand it.</t>
   </si>
   <si>
     <t xml:space="preserve">And it does take some time, I go every two weeks, on Thursdays for a consultation and on Fridays to get a baxter. Yeah, that takes time. And eventually you have something like, yeah. Because then you have to go to the dermatologist's every few months, I think three months. And then to the eye doctor, because a melanoma can also be in the eye. A dermatologist can't see that. And then you also have to go to the gynaecologist, because you'll also have melanomas there. And so you keep busy with a lot of tests.</t>
@@ -293,6 +401,12 @@
     <t xml:space="preserve">I just told him that I still had pain... Every time I ate, I had pain, just behind the scar, and then he interrupted me. And he said to me, 'no'.</t>
   </si>
   <si>
+    <t xml:space="preserve">Yes, of course, that is discussed to some extent. On the other hand, a doctor is also limited in the possibilities. I can only say, from the health insurance and such, there are only a limited number of possibilities to take. And if you meet those conditions, then you can take that therapy. And I mean, that treatment path is also fixed. A doctor doesn't have so much... He does have a number of choices and I can... But there aren't that many choices with melanoma, of course. To say, we're going to do something completely different now.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And then the surgeon said to me at one of the consultations, yes, what would we do? Would we dare to remove that drain once? And then I thought, I'm not an experiment, either you know it and you remove it, or you don't. It's a statement, people should pay more attention to that. I got the feeling that I was allowed to decide for myself whether we were going to dare to do that or not. And I think that was a way of speaking from that person, but actually I didn't find that appropriate. That didn't really give me confidence, I have to say.</t>
+  </si>
+  <si>
     <t xml:space="preserve">They explained to me [...] absolutely nothing about what was post-operative... and they didn't ask me any questions." [...] "The surgeon didn't tell me at all during the consultation, that after such an intervention, I had no idea, there are so many weeks of recovery." [...] "No one asked me after the operation if I had someone near me to watch over me, to help me, to uh... and they didn't explain to me that I would need a nurse to change the dressings. They hadn't told me anything.</t>
   </si>
   <si>
@@ -305,52 +419,16 @@
     <t xml:space="preserve">But I also have to say, my oncologist also provided the necessary information. Not only to me, but also to my wife, my children. I think my parents called him once. And he took the time every time to explain it, okay, that's it. Here we are now. These are the treatment options.</t>
   </si>
   <si>
-    <t xml:space="preserve">And then he explained everything to me, in detail, and with the words... uh, the scientific words, and luckily I had a piece of paper and a pen. All the words that I didn't understand at all. At the same time, he explained a little bit anyway, but there were things that I didn't understand, which allowed me to go and look on the internet and understand it, well, at my leisure.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If you look up information, you find two things. Either very simple information, really super simple, that everyone can understand, where things are presented so black and white that you're actually not getting anything out of it, because it's not really about you. Plus, you don't want to recognize yourself in it, because it usually concerns bad prognosis, good prognosis. So that's not good. Well, that's how it is, what's on the 'Kom op tegen Kanker' website, I'm not getting anything out of it. But the other things you search for, the scientific articles, are actually so directed at oncologists, and I'm not an oncologist, so they're too complicated for me and I don't understand enough of them. And even then, you still don't know if you fall into that research population or not. So no, I actually don't find the right information that can help me.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In Flanders, there is the 'Melanoompunt'. The first day I was at [name Flemish hospital], I was still in the hospital when the Melanoompunt called me, saying 'Well, we are now organizing...', it was two weeks later, 'we are organizing the annual meeting, with all patients who have had melanomas, and so you are also part of the melanoma family', you know.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, of course, that is discussed to some extent. On the other hand, a doctor is also limited in the possibilities. I can only say, from the health insurance and such, there are only a limited number of possibilities to take. And if you meet those conditions, then you can take that therapy. And I mean, that treatment path is also fixed. A doctor doesn't have so much... He does have a number of choices and I can... But there aren't that many choices with melanoma, of course. To say, we're going to do something completely different now.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">And then the surgeon said to me at one of the consultations, yes, what would we do? Would we dare to remove that drain once? And then I thought, I'm not an experiment, either you know it and you remove it, or you don't. It's a statement, people should pay more attention to that. I got the feeling that I was allowed to decide for myself whether we were going to dare to do that or not. And I think that was a way of speaking from that person, but actually I didn't find that appropriate. That didn't really give me confidence, I have to say.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actually, my brother was the reason. A few years ago he had a melanoma and it was surgically removed and that was it. There was no treatment, no follow-up or anything like that. [...] Another reason was also because my sister-in-law died of a melanoma. That made the urgency even greater.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It's clear that the spot was really a textbook case, it looked very much like what you see on posters, and at the same time I thought 'well, no', there you go, so I really went into denial, and it's because... Well, a year ago this spot started to ooze, to itch very strongly, that... that's when I thought... then I showed it to my son, who said 'mom, that's not good', and that's when I decided to go to the dermatologist's.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[...] I never felt the need to say ' I have to regularly see my dermatologist because I'm at risk'. I never had that notion of risk in mind.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No, it wasn't diagnosed through annual check-ups, because nothing was ever found. It's actually because I had a symptom, because I had the swollen lymph node. And it turned out to be the result of a melanoma that had once been there." [...] "So that means that with that metastasis in the lymph node, which was in the lymph node, I was actually already in stage 3, while a melanoma had never been seen. So all those years no melanoma was found. We looked for it, given my brother's story, but no melanoma was found.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">But I think that if something can still evolve in the medical world, then I think that early detection is actually important. [...] Because I want to say now, when I see how a dermatologist examines me, yes, I understand that they can miss that.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, we have to move on. So it's actually a combination of circumstances and even during the examination at [name of the hospital], they didn't even know whether it was a primary melanoma or a metastasis. So for me it's really a difficult case, because I believe that technology should be more advanced. That there is still doubt in the final report... but I think that can happen in the medical world, but my brain doesn't understand it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It was almost impossible to get into a practice nearby. I think that's an issue on all health levels. That's not just dermatologists. That's a big issue. Accessibility to a dermatologist. But all the good dermatologists in the are not accapting new patients.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When we call for an appointment, we are given dates, but there are days when you teach, so you say 'well no, I'm not going to be absent'. First of all, because it's not covered, we're not covered for medical appointments, we can't be absent for medical appointments. And so we give up, we postpone all the time, we give up because we know that it's not going to fit in the schedule.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Well I live alone. So I've already had to manage by myself in an emergency. Luckily, the local grocer told me 'there are services to take you to the hospital'. But for the return, I found a friend. I had called a friend without knowing exactly what time I'd be finished and so I had someone just to take me back home. So in the end, I managed by myself, I found someone in the neighborhood - thank you Facebook - who came to pick me up.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I also think that in this case, immunotherapy should be available to the patient in whichever hospital they want to do it, I think that's very important, that we don't have to go to [city], so that should be much better coordinated.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">And on a mental health level, yes... we all know that access to care for psychologists is very difficult. So access to care for psychologists should be made more accessible. But yes, that's a problem, not just for cancer patients. Even people with mental problems have difficulty accessing it, so I think that's important.</t>
+    <t xml:space="preserve">Yes, parking, I think... I think they should make a separate parking lot for that day center, because it's six euros every time. And I actually think that's too much for... It's not like I'm visiting, but I can't change that they take such a long time... Sometimes I have to sit in that chair or on the bed for three hours. That's not a mortal sin, but I think 6 euros is too much for actually being a patient, a cancer patient. [...] That's not our choice, so they call it a social rate, but I don't think 6 euros is a social rate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That is fully reimbursed. I am happy about that. I think I take about 15,000 euros worth of pills per month. So that is fully reimbursed. So I have absolutely no problems with that. Actually, I don't have any consultation fees. But if I just go to the day hospital, the costs are also reimbursed through the hospitalization insurance. So, in essence, I have little financial impact there.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That there is a care coordinator or a case manager or that you have a personal coach who can guide you through all phases and not necessarily emotionally. Although I think you shouldn't separate these functions. I think you should have an onco-coach who can do everything. Someone who can follow up on the administrative side for you and, because that shouldn't be too much work, but someone who can do that. But someone who can also provide some emotional support. I think you'd get more out of it in that way. I think a psychologist is more in the second line, and is not necessary for everyone. But having a coach who walks alongside you, who holds the baton for you. I think that would be ideal for me. Who also ensures coordination between first line, second line, contacts, and possibly GP if necessary.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, it was nice. [...] But we know that they are all people [...] who have melanoma and so, it actually helps to destress. We say to ourselves, 'well, these are normal people after all'. [...] So there you go. And then we were able to talk to quite a few people, super nice of course. And who all have this perspective of sharing their experience. To take the drama out of the situation a bit.</t>
   </si>
   <si>
     <t xml:space="preserve">I currently work with, I always forget the name, I work three and a half days a week and one and a half days I'm still on sick leave. Definitely progressive work resumption, for three years now during treatment. That's mainly due to fatigue and concentration problems. If I have a whole day, I have an office job, but when I come home in the evening, I'm just naturally dead tired. [...] So I really need that time to recover a bit and do things.</t>
@@ -359,85 +437,10 @@
     <t xml:space="preserve">Because, you know, I think it's better to enjoy life and anyway... I could see that I was too tired, that I wouldn't have been able to handle it, and rather than managing it poorly, it's better to retire. I 've already been eligible for retirement for more than two years anyway.</t>
   </si>
   <si>
-    <t xml:space="preserve">That is fully reimbursed. I am happy about that. I think I take about 15,000 euros worth of pills per month. So that is fully reimbursed. So I have absolutely no problems with that. Actually, I don't have any consultation fees. But if I just go to the day hospital, the costs are also reimbursed through the hospitalization insurance. So, in essence, I have little financial impact there.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, parking, I think... I think they should make a separate parking lot for that day center, because it's six euros every time. And I actually think that's too much for... It's not like I'm visiting, but I can't change that they take such a long time... Sometimes I have to sit in that chair or on the bed for three hours. That's not a mortal sin, but I think 6 euros is too much for actually being a patient, a cancer patient. [...] That's not our choice, so they call it a social rate, but I don't think 6 euros is a social rate.</t>
-  </si>
-  <si>
     <t xml:space="preserve">My wife, she deals with it in her own way, but of course, I make myself a priority, even though that's not right. A bit selfish. But I do have cancer. So you have to be able to put that everything into perspective, but it definitely has an impact on our relationship.</t>
   </si>
   <si>
     <t xml:space="preserve">In Belgium, yearly UV awareness campaigns are rolled out. Despite this, inadequate protective practices have been measured, notably during outdoor leisure activities and particularly in young people and outdoor workers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, that's a blow when you hear that. Because you know first of all: cancer, that's already something. The word cancer. Then melanoma, you know, that's really something serious. All cancer is serious, but yeah. [...] Oh yeah, psychologically, just the word cancer is something. They say there is a life, before and after cancer, and that's true. And I mean purely psychologically.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Because I am sick, but if I die, my wife will be left behind. So psychologically, that also hits deep.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">That my life now completely changes, even if the therapy stops. Yes, I still have to go to the dermatologist's every few months. And you will always be afraid that there is a spot... Yes, I have that now too. So I am diligent in the shower, and I see a spot that I thought, 'that wasn't there before'.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[…]  I also notice that I become more nervous. And that's not my character, because normally when there is a problem I stay calm.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We are very fragile when we arrive at the hospital. [...] Well, I felt very fragile when I entered the room alone, since the lady dropped me off at the entrance, I entered that room at 9AM and I burst into tears. [...] I felt abandoned, totally abandoned and... that's it. It's like being taken to prison.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I think that's very important, for people who, so to speak, are considered to have no treatment options left. That they can have access to potential therapies that might still offer some hope. I think that... Because I think that if you hear that word 'that you are out of treatment options', it's a serious blow. And I think that in some ways one should still try to find something that might work.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So I go telling myself, it's me who will have the upper hand. I added greenery to the garden, just like that. To have shaded areas, things like that. So yeah, psychologically it's like telling myself 'no, I'm not going to let myself be defeated'.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">That there is a care coordinator or a case manager or that you have a personal coach who can guide you through all phases and not necessarily emotionally. Although I think you shouldn't separate these functions. I think you should have an onco-coach who can do everything. Someone who can follow up on the administrative side for you and, because that shouldn't be too much work, but someone who can do that. But someone who can also provide some emotional support. I think you'd get more out of it in that way. I think a psychologist is more in the second line, and is not necessary for everyone. But having a coach who walks alongside you, who holds the baton for you. I think that would be ideal for me. Who also ensures coordination between first line, second line, contacts, and possibly GP if necessary.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, it was nice. [...] But we know that they are all people [...] who have melanoma and so, it actually helps to destress. We say to ourselves, 'well, these are normal people after all'. [...] So there you go. And then we were able to talk to quite a few people, super nice of course. And who all have this perspective of sharing their experience. To take the drama out of the situation a bit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">After maybe doing the dishes I had to go to bed, it was always a case of rest and activity. I knew that my day had to be broken down into several, several, come on, several, stages".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I'm out of breath all the time, I can't allow myself to, to walk, to live properly, the way I normally want to live. For example, if I go for a walk in the woods, I used to really feel the air passing through my lungs, I really felt like I was living. Now, well, when I breathe, I breathe, well, I really have the impression that, that I'm not even taking advantage of, it's as if I didn't know how to breathe entirely in fact, it's, it's, it's unpleasant.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muscle aches: as soon as I exert myself, I ache all over. As much as I used to do sport regularly... here I've lost all my muscles. I'm back to 0. When I lift my weights and struggle to finish my set, afterwards I can't even hold my phone in my hand because I've lost all my strength</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taste and smell disorders, and more specifically parosmia. Many tastes and smells do not correspond to what I knew before COVID. A single smell and taste (that I don't know) replaces all of them. I'm at the stage where I can't stand to stay in the kitchen when our breads are baking in the oven.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Having trouble finding words, not being able to finish sentences, having a lot of trouble concentrating (e.g. during work, asking yourself every 5 minutes what you were doing now... which folder did I want to open again' or “what was I going to do next”), confused in the sense that you very often forget things or sometimes have the feeling that you are in a fog where everything is blurred in your head for a moment, these are all symptoms that I never had before the disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">you could say yes, everyone is tired sometimes and then your brain sometimes fails, but this is much worse than that and also abnormal that it remains so frequently present.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yoga is very slow and gentle, without too much pushing. The emphasis is on activating the parasympathetic nervous system to stop the fight-or-flight response of the nervous system. Indeed, the autonomic nervous system seems to be affected by COVID. In mindfulness, I try to focus on positive things and accept that the situation is as it is.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I learned relaxation techniques through a relaxation therapist to fall back asleep when I wake up at night with muscle tension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There were no tests available in March 2020 for young, healthy people with mild symptoms like me. Contact through the GP was only by phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">moreover, the doctor I normally consult was not available. So I had to make do with a telephone consultation with someone who did not know me as a patient at all.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I more or less made the diagnosis myself. You read about it, actively look up information and draw your conclusion.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It was a bit disturbing because you feel a whole series of symptoms and... there's nothing you can do but wait for it to pass... and as in some cases it takes a very long time, you wonder if it's imaginary... in short, you doubt your own mental health...".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My doctor even told me: but ma'am, why should I refer you to specialists to do all kinds of tests if they are not going to find anything anyway? That way you'll soon be the end of the story[...] Everything is so eagerly shoved under the mat of psychosomatic anyway...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insomnia. I have that too. So I'm tremendously tired, but at night I can't sleep. Yes yes. That you actually lie awake at night. I'm downstairs. I'm tired, I crawl into bed. Uh I sleep for two hours, three hours, and then it's done at one time.</t>
   </si>
 </sst>
 </file>
@@ -776,900 +779,1239 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>34</v>
-      </c>
-      <c r="B17" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>35</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>35</v>
-      </c>
-      <c r="B21" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>36</v>
-      </c>
-      <c r="B22" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>55</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>55</v>
-      </c>
-      <c r="B23" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>58</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>55</v>
-      </c>
-      <c r="B24" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>55</v>
-      </c>
-      <c r="B25" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>60</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>55</v>
-      </c>
-      <c r="B26" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>62</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>55</v>
-      </c>
-      <c r="B27" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>62</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>55</v>
-      </c>
-      <c r="B28" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>55</v>
-      </c>
-      <c r="B29" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>56</v>
-      </c>
-      <c r="B30" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>65</v>
+      </c>
+      <c r="C30" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>56</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>56</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>57</v>
-      </c>
-      <c r="B33" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>66</v>
+      </c>
+      <c r="C33" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>57</v>
-      </c>
-      <c r="B34" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>66</v>
+      </c>
+      <c r="C34" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>59</v>
-      </c>
-      <c r="B35" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>66</v>
+      </c>
+      <c r="C35" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>59</v>
-      </c>
-      <c r="B36" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>66</v>
+      </c>
+      <c r="C36" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>60</v>
-      </c>
-      <c r="B37" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>66</v>
+      </c>
+      <c r="C37" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>60</v>
-      </c>
-      <c r="B38" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>66</v>
+      </c>
+      <c r="C38" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>62</v>
-      </c>
-      <c r="B39" t="s">
-        <v>33</v>
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>66</v>
+      </c>
+      <c r="C39" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>64</v>
-      </c>
-      <c r="B40" t="s">
-        <v>34</v>
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>67</v>
+      </c>
+      <c r="C40" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>64</v>
-      </c>
-      <c r="B41" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>67</v>
+      </c>
+      <c r="C41" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>64</v>
-      </c>
-      <c r="B42" t="s">
-        <v>36</v>
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>68</v>
+      </c>
+      <c r="C42" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>64</v>
-      </c>
-      <c r="B43" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>68</v>
+      </c>
+      <c r="C43" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>64</v>
-      </c>
-      <c r="B44" t="s">
-        <v>38</v>
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>68</v>
+      </c>
+      <c r="C44" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>64</v>
-      </c>
-      <c r="B45" t="s">
-        <v>39</v>
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>68</v>
+      </c>
+      <c r="C45" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>64</v>
-      </c>
-      <c r="B46" t="s">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>68</v>
+      </c>
+      <c r="C46" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>64</v>
-      </c>
-      <c r="B47" t="s">
-        <v>41</v>
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>68</v>
+      </c>
+      <c r="C47" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>64</v>
-      </c>
-      <c r="B48" t="s">
-        <v>42</v>
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>68</v>
+      </c>
+      <c r="C48" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>64</v>
-      </c>
-      <c r="B49" t="s">
-        <v>43</v>
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>68</v>
+      </c>
+      <c r="C49" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>65</v>
-      </c>
-      <c r="B50" t="s">
-        <v>44</v>
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>69</v>
+      </c>
+      <c r="C50" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>65</v>
-      </c>
-      <c r="B51" t="s">
-        <v>45</v>
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>69</v>
+      </c>
+      <c r="C51" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>65</v>
-      </c>
-      <c r="B52" t="s">
-        <v>46</v>
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>69</v>
+      </c>
+      <c r="C52" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>65</v>
-      </c>
-      <c r="B53" t="s">
-        <v>47</v>
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>69</v>
+      </c>
+      <c r="C53" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>66</v>
-      </c>
-      <c r="B54" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>69</v>
+      </c>
+      <c r="C54" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>66</v>
-      </c>
-      <c r="B55" t="s">
-        <v>49</v>
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>69</v>
+      </c>
+      <c r="C55" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>67</v>
-      </c>
-      <c r="B56" t="s">
-        <v>50</v>
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>69</v>
+      </c>
+      <c r="C56" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>67</v>
-      </c>
-      <c r="B57" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>69</v>
+      </c>
+      <c r="C57" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>67</v>
-      </c>
-      <c r="B58" t="s">
-        <v>52</v>
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>69</v>
+      </c>
+      <c r="C58" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>68</v>
-      </c>
-      <c r="B59" t="s">
-        <v>53</v>
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>69</v>
+      </c>
+      <c r="C59" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>68</v>
-      </c>
-      <c r="B60" t="s">
-        <v>54</v>
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>70</v>
+      </c>
+      <c r="C60" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>68</v>
-      </c>
-      <c r="B61" t="s">
-        <v>55</v>
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>70</v>
+      </c>
+      <c r="C61" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>68</v>
-      </c>
-      <c r="B62" t="s">
-        <v>56</v>
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>70</v>
+      </c>
+      <c r="C62" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>68</v>
-      </c>
-      <c r="B63" t="s">
-        <v>57</v>
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>71</v>
+      </c>
+      <c r="C63" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>68</v>
-      </c>
-      <c r="B64" t="s">
-        <v>58</v>
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>71</v>
+      </c>
+      <c r="C64" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>68</v>
-      </c>
-      <c r="B65" t="s">
-        <v>59</v>
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>71</v>
+      </c>
+      <c r="C65" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>68</v>
-      </c>
-      <c r="B66" t="s">
-        <v>60</v>
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>71</v>
+      </c>
+      <c r="C66" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>71</v>
-      </c>
-      <c r="B67" t="s">
-        <v>61</v>
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>72</v>
+      </c>
+      <c r="C67" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>71</v>
-      </c>
-      <c r="B68" t="s">
-        <v>62</v>
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>72</v>
+      </c>
+      <c r="C68" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>71</v>
-      </c>
-      <c r="B69" t="s">
-        <v>63</v>
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>72</v>
+      </c>
+      <c r="C69" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>71</v>
-      </c>
-      <c r="B70" t="s">
-        <v>64</v>
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>73</v>
+      </c>
+      <c r="C70" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>71</v>
-      </c>
-      <c r="B71" t="s">
-        <v>65</v>
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>73</v>
+      </c>
+      <c r="C71" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>71</v>
       </c>
-      <c r="B72" t="s">
-        <v>66</v>
+      <c r="B72" t="n">
+        <v>73</v>
+      </c>
+      <c r="C72" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>67</v>
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>73</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>71</v>
-      </c>
-      <c r="B74" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>74</v>
+      </c>
+      <c r="C74" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>71</v>
-      </c>
-      <c r="B75" t="s">
-        <v>69</v>
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>74</v>
+      </c>
+      <c r="C75" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>72</v>
-      </c>
-      <c r="B76" t="s">
-        <v>70</v>
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>72</v>
-      </c>
-      <c r="B77" t="s">
-        <v>71</v>
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>74</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>72</v>
-      </c>
-      <c r="B78" t="s">
-        <v>72</v>
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>75</v>
+      </c>
+      <c r="C78" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>73</v>
-      </c>
-      <c r="B79" t="s">
-        <v>73</v>
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>75</v>
+      </c>
+      <c r="C79" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>73</v>
-      </c>
-      <c r="B80" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>75</v>
+      </c>
+      <c r="C80" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>73</v>
-      </c>
-      <c r="B81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
         <v>75</v>
+      </c>
+      <c r="C81" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>75</v>
+      </c>
+      <c r="C82" t="s">
         <v>73</v>
-      </c>
-      <c r="B82" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>75</v>
+      </c>
+      <c r="C83" t="s">
         <v>74</v>
-      </c>
-      <c r="B83" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>74</v>
-      </c>
-      <c r="B84" t="s">
-        <v>74</v>
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>75</v>
+      </c>
+      <c r="C84" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>74</v>
-      </c>
-      <c r="B85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
         <v>75</v>
+      </c>
+      <c r="C85" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>74</v>
-      </c>
-      <c r="B86" t="s">
-        <v>76</v>
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>75</v>
+      </c>
+      <c r="C86" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>75</v>
-      </c>
-      <c r="B87" t="s">
-        <v>77</v>
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>76</v>
+      </c>
+      <c r="C87" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>75</v>
-      </c>
-      <c r="B88" t="s">
-        <v>78</v>
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>76</v>
+      </c>
+      <c r="C88" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>75</v>
-      </c>
-      <c r="B89" t="s">
-        <v>79</v>
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>76</v>
+      </c>
+      <c r="C89" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>98</v>
+      </c>
+      <c r="C90" t="s">
         <v>81</v>
-      </c>
-      <c r="B90" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>97</v>
-      </c>
-      <c r="B91" t="s">
-        <v>81</v>
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>101</v>
+      </c>
+      <c r="C91" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>99</v>
-      </c>
-      <c r="B92" t="s">
-        <v>82</v>
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>101</v>
+      </c>
+      <c r="C92" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>99</v>
-      </c>
-      <c r="B93" t="s">
-        <v>83</v>
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>102</v>
+      </c>
+      <c r="C93" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>99</v>
-      </c>
-      <c r="B94" t="s">
-        <v>84</v>
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>106</v>
+      </c>
+      <c r="C94" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>99</v>
-      </c>
-      <c r="B95" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>107</v>
+      </c>
+      <c r="C95" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>101</v>
-      </c>
-      <c r="B96" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>108</v>
+      </c>
+      <c r="C96" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>101</v>
-      </c>
-      <c r="B97" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>116</v>
+      </c>
+      <c r="C97" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>102</v>
-      </c>
-      <c r="B98" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>119</v>
+      </c>
+      <c r="C98" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>102</v>
-      </c>
-      <c r="B99" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>119</v>
+      </c>
+      <c r="C99" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>102</v>
-      </c>
-      <c r="B100" t="s">
-        <v>72</v>
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>120</v>
+      </c>
+      <c r="C100" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>109</v>
-      </c>
-      <c r="B101" t="s">
-        <v>90</v>
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>120</v>
+      </c>
+      <c r="C101" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>109</v>
-      </c>
-      <c r="B102" t="s">
-        <v>91</v>
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>120</v>
+      </c>
+      <c r="C102" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>109</v>
-      </c>
-      <c r="B103" t="s">
-        <v>92</v>
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>120</v>
+      </c>
+      <c r="C103" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>110</v>
-      </c>
-      <c r="B104" t="s">
-        <v>93</v>
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>120</v>
+      </c>
+      <c r="C104" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>110</v>
-      </c>
-      <c r="B105" t="s">
-        <v>94</v>
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>120</v>
+      </c>
+      <c r="C105" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>110</v>
-      </c>
-      <c r="B106" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>135</v>
+      </c>
+      <c r="C106" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>110</v>
-      </c>
-      <c r="B107" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" t="n">
+        <v>141</v>
+      </c>
+      <c r="C107" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>111</v>
-      </c>
-      <c r="B108" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" t="n">
+        <v>150</v>
+      </c>
+      <c r="C108" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>111</v>
-      </c>
-      <c r="B109" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109" t="n">
+        <v>150</v>
+      </c>
+      <c r="C109" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>111</v>
-      </c>
-      <c r="B110" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" t="n">
+        <v>150</v>
+      </c>
+      <c r="C110" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>112</v>
-      </c>
-      <c r="B111" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111" t="n">
+        <v>150</v>
+      </c>
+      <c r="C111" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>112</v>
-      </c>
-      <c r="B112" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112" t="n">
+        <v>150</v>
+      </c>
+      <c r="C112" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>113</v>
-      </c>
-      <c r="B113" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" t="n">
+        <v>150</v>
+      </c>
+      <c r="C113" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1677,672 +2019,924 @@
       <c r="A114" t="n">
         <v>113</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" t="n">
+        <v>150</v>
+      </c>
+      <c r="C114" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="s">
-        <v>104</v>
+        <v>114</v>
+      </c>
+      <c r="B115" t="n">
+        <v>150</v>
+      </c>
+      <c r="C115" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>113</v>
-      </c>
-      <c r="B116" t="s">
-        <v>105</v>
+        <v>115</v>
+      </c>
+      <c r="B116" t="n">
+        <v>151</v>
+      </c>
+      <c r="C116" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>113</v>
-      </c>
-      <c r="B117" t="s">
-        <v>106</v>
+        <v>116</v>
+      </c>
+      <c r="B117" t="n">
+        <v>151</v>
+      </c>
+      <c r="C117" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>113</v>
-      </c>
-      <c r="B118" t="s">
-        <v>107</v>
+        <v>117</v>
+      </c>
+      <c r="B118" t="n">
+        <v>151</v>
+      </c>
+      <c r="C118" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>113</v>
-      </c>
-      <c r="B119" t="s">
-        <v>72</v>
+        <v>118</v>
+      </c>
+      <c r="B119" t="n">
+        <v>151</v>
+      </c>
+      <c r="C119" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>114</v>
-      </c>
-      <c r="B120" t="s">
-        <v>108</v>
+        <v>119</v>
+      </c>
+      <c r="B120" t="n">
+        <v>151</v>
+      </c>
+      <c r="C120" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>114</v>
-      </c>
-      <c r="B121" t="s">
-        <v>109</v>
+        <v>120</v>
+      </c>
+      <c r="B121" t="n">
+        <v>151</v>
+      </c>
+      <c r="C121" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>114</v>
-      </c>
-      <c r="B122" t="s">
-        <v>110</v>
+        <v>121</v>
+      </c>
+      <c r="B122" t="n">
+        <v>151</v>
+      </c>
+      <c r="C122" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>114</v>
-      </c>
-      <c r="B123" t="s">
-        <v>111</v>
+        <v>122</v>
+      </c>
+      <c r="B123" t="n">
+        <v>151</v>
+      </c>
+      <c r="C123" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>114</v>
-      </c>
-      <c r="B124" t="s">
-        <v>112</v>
+        <v>123</v>
+      </c>
+      <c r="B124" t="n">
+        <v>152</v>
+      </c>
+      <c r="C124" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>116</v>
-      </c>
-      <c r="B125" t="s">
-        <v>113</v>
+        <v>124</v>
+      </c>
+      <c r="B125" t="n">
+        <v>152</v>
+      </c>
+      <c r="C125" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>116</v>
-      </c>
-      <c r="B126" t="s">
-        <v>114</v>
+        <v>125</v>
+      </c>
+      <c r="B126" t="n">
+        <v>152</v>
+      </c>
+      <c r="C126" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>117</v>
-      </c>
-      <c r="B127" t="s">
-        <v>115</v>
+        <v>126</v>
+      </c>
+      <c r="B127" t="n">
+        <v>152</v>
+      </c>
+      <c r="C127" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>118</v>
-      </c>
-      <c r="B128" t="s">
-        <v>116</v>
+        <v>127</v>
+      </c>
+      <c r="B128" t="n">
+        <v>152</v>
+      </c>
+      <c r="C128" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>121</v>
-      </c>
-      <c r="B129" t="s">
-        <v>117</v>
+        <v>128</v>
+      </c>
+      <c r="B129" t="n">
+        <v>152</v>
+      </c>
+      <c r="C129" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>123</v>
-      </c>
-      <c r="B130" t="s">
-        <v>118</v>
+        <v>129</v>
+      </c>
+      <c r="B130" t="n">
+        <v>152</v>
+      </c>
+      <c r="C130" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>131</v>
-      </c>
-      <c r="B131" t="s">
-        <v>119</v>
+        <v>130</v>
+      </c>
+      <c r="B131" t="n">
+        <v>152</v>
+      </c>
+      <c r="C131" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
         <v>131</v>
       </c>
-      <c r="B132" t="s">
-        <v>120</v>
+      <c r="B132" t="n">
+        <v>153</v>
+      </c>
+      <c r="C132" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="s">
-        <v>121</v>
+        <v>132</v>
+      </c>
+      <c r="B133" t="n">
+        <v>153</v>
+      </c>
+      <c r="C133" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>131</v>
-      </c>
-      <c r="B134" t="s">
-        <v>122</v>
+        <v>133</v>
+      </c>
+      <c r="B134" t="n">
+        <v>153</v>
+      </c>
+      <c r="C134" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>131</v>
-      </c>
-      <c r="B135" t="s">
-        <v>123</v>
+        <v>134</v>
+      </c>
+      <c r="B135" t="n">
+        <v>153</v>
+      </c>
+      <c r="C135" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>131</v>
-      </c>
-      <c r="B136" t="s">
-        <v>124</v>
+        <v>135</v>
+      </c>
+      <c r="B136" t="n">
+        <v>153</v>
+      </c>
+      <c r="C136" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>131</v>
-      </c>
-      <c r="B137" t="s">
-        <v>125</v>
+        <v>136</v>
+      </c>
+      <c r="B137" t="n">
+        <v>153</v>
+      </c>
+      <c r="C137" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>131</v>
-      </c>
-      <c r="B138" t="s">
-        <v>72</v>
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>153</v>
+      </c>
+      <c r="C138" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>132</v>
-      </c>
-      <c r="B139" t="s">
-        <v>119</v>
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>153</v>
+      </c>
+      <c r="C139" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>132</v>
-      </c>
-      <c r="B140" t="s">
-        <v>120</v>
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>154</v>
+      </c>
+      <c r="C140" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>132</v>
-      </c>
-      <c r="B141" t="s">
-        <v>121</v>
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>154</v>
+      </c>
+      <c r="C141" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>132</v>
-      </c>
-      <c r="B142" t="s">
-        <v>122</v>
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>154</v>
+      </c>
+      <c r="C142" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>132</v>
-      </c>
-      <c r="B143" t="s">
-        <v>123</v>
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>154</v>
+      </c>
+      <c r="C143" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>132</v>
-      </c>
-      <c r="B144" t="s">
-        <v>124</v>
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>154</v>
+      </c>
+      <c r="C144" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>132</v>
-      </c>
-      <c r="B145" t="s">
-        <v>125</v>
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>154</v>
+      </c>
+      <c r="C145" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>132</v>
-      </c>
-      <c r="B146" t="s">
-        <v>72</v>
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>154</v>
+      </c>
+      <c r="C146" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>133</v>
-      </c>
-      <c r="B147" t="s">
-        <v>119</v>
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>154</v>
+      </c>
+      <c r="C147" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>133</v>
-      </c>
-      <c r="B148" t="s">
-        <v>120</v>
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>155</v>
+      </c>
+      <c r="C148" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>133</v>
-      </c>
-      <c r="B149" t="s">
-        <v>121</v>
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>155</v>
+      </c>
+      <c r="C149" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>133</v>
-      </c>
-      <c r="B150" t="s">
-        <v>122</v>
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>155</v>
+      </c>
+      <c r="C150" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>133</v>
-      </c>
-      <c r="B151" t="s">
-        <v>123</v>
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>155</v>
+      </c>
+      <c r="C151" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>133</v>
-      </c>
-      <c r="B152" t="s">
-        <v>124</v>
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>155</v>
+      </c>
+      <c r="C152" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>133</v>
-      </c>
-      <c r="B153" t="s">
-        <v>125</v>
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>155</v>
+      </c>
+      <c r="C153" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>133</v>
-      </c>
-      <c r="B154" t="s">
-        <v>72</v>
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>155</v>
+      </c>
+      <c r="C154" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>134</v>
-      </c>
-      <c r="B155" t="s">
-        <v>119</v>
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>155</v>
+      </c>
+      <c r="C155" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>134</v>
-      </c>
-      <c r="B156" t="s">
-        <v>120</v>
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>157</v>
+      </c>
+      <c r="C156" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>134</v>
-      </c>
-      <c r="B157" t="s">
-        <v>121</v>
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>157</v>
+      </c>
+      <c r="C157" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>134</v>
-      </c>
-      <c r="B158" t="s">
-        <v>122</v>
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>157</v>
+      </c>
+      <c r="C158" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>134</v>
-      </c>
-      <c r="B159" t="s">
-        <v>123</v>
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>157</v>
+      </c>
+      <c r="C159" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>134</v>
-      </c>
-      <c r="B160" t="s">
-        <v>124</v>
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>157</v>
+      </c>
+      <c r="C160" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>134</v>
-      </c>
-      <c r="B161" t="s">
-        <v>125</v>
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>159</v>
+      </c>
+      <c r="C161" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>134</v>
-      </c>
-      <c r="B162" t="s">
-        <v>72</v>
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>159</v>
+      </c>
+      <c r="C162" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>135</v>
-      </c>
-      <c r="B163" t="s">
-        <v>119</v>
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>159</v>
+      </c>
+      <c r="C163" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>135</v>
-      </c>
-      <c r="B164" t="s">
-        <v>120</v>
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>165</v>
+      </c>
+      <c r="C164" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>135</v>
-      </c>
-      <c r="B165" t="s">
-        <v>121</v>
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>165</v>
+      </c>
+      <c r="C165" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>135</v>
-      </c>
-      <c r="B166" t="s">
-        <v>122</v>
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>166</v>
+      </c>
+      <c r="C166" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>135</v>
-      </c>
-      <c r="B167" t="s">
-        <v>123</v>
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>166</v>
+      </c>
+      <c r="C167" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>135</v>
-      </c>
-      <c r="B168" t="s">
-        <v>124</v>
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>166</v>
+      </c>
+      <c r="C168" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>135</v>
-      </c>
-      <c r="B169" t="s">
-        <v>125</v>
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>166</v>
+      </c>
+      <c r="C169" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>135</v>
-      </c>
-      <c r="B170" t="s">
-        <v>72</v>
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>168</v>
+      </c>
+      <c r="C170" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>136</v>
-      </c>
-      <c r="B171" t="s">
-        <v>119</v>
+        <v>170</v>
+      </c>
+      <c r="B171" t="n">
+        <v>168</v>
+      </c>
+      <c r="C171" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>136</v>
-      </c>
-      <c r="B172" t="s">
-        <v>120</v>
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>168</v>
+      </c>
+      <c r="C172" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>136</v>
-      </c>
-      <c r="B173" t="s">
-        <v>121</v>
+        <v>172</v>
+      </c>
+      <c r="B173" t="n">
+        <v>169</v>
+      </c>
+      <c r="C173" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>136</v>
-      </c>
-      <c r="B174" t="s">
-        <v>122</v>
+        <v>173</v>
+      </c>
+      <c r="B174" t="n">
+        <v>169</v>
+      </c>
+      <c r="C174" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>136</v>
-      </c>
-      <c r="B175" t="s">
-        <v>123</v>
+        <v>174</v>
+      </c>
+      <c r="B175" t="n">
+        <v>169</v>
+      </c>
+      <c r="C175" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>136</v>
-      </c>
-      <c r="B176" t="s">
-        <v>124</v>
+        <v>175</v>
+      </c>
+      <c r="B176" t="n">
+        <v>169</v>
+      </c>
+      <c r="C176" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>136</v>
-      </c>
-      <c r="B177" t="s">
-        <v>125</v>
+        <v>176</v>
+      </c>
+      <c r="B177" t="n">
+        <v>169</v>
+      </c>
+      <c r="C177" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>136</v>
-      </c>
-      <c r="B178" t="s">
-        <v>72</v>
+        <v>177</v>
+      </c>
+      <c r="B178" t="n">
+        <v>169</v>
+      </c>
+      <c r="C178" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>138</v>
-      </c>
-      <c r="B179" t="s">
-        <v>126</v>
+        <v>178</v>
+      </c>
+      <c r="B179" t="n">
+        <v>169</v>
+      </c>
+      <c r="C179" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>138</v>
-      </c>
-      <c r="B180" t="s">
-        <v>127</v>
+        <v>179</v>
+      </c>
+      <c r="B180" t="n">
+        <v>170</v>
+      </c>
+      <c r="C180" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>138</v>
-      </c>
-      <c r="B181" t="s">
-        <v>72</v>
+        <v>180</v>
+      </c>
+      <c r="B181" t="n">
+        <v>170</v>
+      </c>
+      <c r="C181" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>147</v>
-      </c>
-      <c r="B182" t="s">
+        <v>181</v>
+      </c>
+      <c r="B182" t="n">
+        <v>170</v>
+      </c>
+      <c r="C182" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>149</v>
-      </c>
-      <c r="B183" t="s">
+        <v>182</v>
+      </c>
+      <c r="B183" t="n">
+        <v>171</v>
+      </c>
+      <c r="C183" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>150</v>
-      </c>
-      <c r="B184" t="s">
+        <v>183</v>
+      </c>
+      <c r="B184" t="n">
+        <v>171</v>
+      </c>
+      <c r="C184" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>154</v>
-      </c>
-      <c r="B185" t="s">
+        <v>184</v>
+      </c>
+      <c r="B185" t="n">
+        <v>172</v>
+      </c>
+      <c r="C185" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>155</v>
-      </c>
-      <c r="B186" t="s">
-        <v>131</v>
+        <v>185</v>
+      </c>
+      <c r="B186" t="n">
+        <v>172</v>
+      </c>
+      <c r="C186" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>156</v>
-      </c>
-      <c r="B187" t="s">
-        <v>132</v>
+        <v>186</v>
+      </c>
+      <c r="B187" t="n">
+        <v>172</v>
+      </c>
+      <c r="C187" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>156</v>
-      </c>
-      <c r="B188" t="s">
-        <v>133</v>
+        <v>187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>172</v>
+      </c>
+      <c r="C188" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="n">
         <v>173</v>
       </c>
-      <c r="B189" t="s">
-        <v>134</v>
+      <c r="C189" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>173</v>
-      </c>
-      <c r="B190" t="s">
-        <v>135</v>
+        <v>189</v>
+      </c>
+      <c r="B190" t="n">
+        <v>174</v>
+      </c>
+      <c r="C190" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="n">
         <v>175</v>
       </c>
-      <c r="B191" t="s">
-        <v>136</v>
+      <c r="C191" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="n">
         <v>175</v>
       </c>
-      <c r="B192" t="s">
-        <v>137</v>
+      <c r="C192" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="n">
         <v>175</v>
       </c>
-      <c r="B193" t="s">
-        <v>138</v>
+      <c r="C193" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>175</v>
-      </c>
-      <c r="B194" t="s">
+        <v>193</v>
+      </c>
+      <c r="B194" t="n">
+        <v>176</v>
+      </c>
+      <c r="C194" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>175</v>
-      </c>
-      <c r="B195" t="s">
+        <v>194</v>
+      </c>
+      <c r="B195" t="n">
+        <v>176</v>
+      </c>
+      <c r="C195" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>175</v>
-      </c>
-      <c r="B196" t="s">
-        <v>72</v>
+        <v>195</v>
+      </c>
+      <c r="B196" t="n">
+        <v>177</v>
+      </c>
+      <c r="C196" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>178</v>
-      </c>
-      <c r="B197" t="s">
-        <v>141</v>
+        <v>196</v>
+      </c>
+      <c r="B197" t="n">
+        <v>180</v>
+      </c>
+      <c r="C197" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
